--- a/biblioteca.xlsx
+++ b/biblioteca.xlsx
@@ -388,7 +388,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Perspectiva
@@ -397,17 +397,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Cinema
@@ -416,17 +416,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Obra teórica fundamental que sistematiza a linguagem fílmica, abordando conceitos de decupagem, articulação espacial e som.
@@ -435,17 +435,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Decupagem, Teoria do cinema, Linguagem fílmica
@@ -454,7 +454,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -470,7 +470,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Alta Books
@@ -479,17 +479,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Audiovisual
@@ -498,7 +498,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -511,7 +511,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Edição de vídeo, Avid, Pós-produção
@@ -520,7 +520,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -536,7 +536,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Senac SP
@@ -545,7 +545,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -558,7 +558,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Motion graphics, Efeitos visuais
@@ -567,7 +567,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -583,7 +583,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Texto &amp; grafia
@@ -592,7 +592,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -605,7 +605,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Som cinematográfico, Estética do som
@@ -614,7 +614,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -630,7 +630,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Bookman
@@ -639,7 +639,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -652,7 +652,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Animação básica, Computação gráfica
@@ -661,7 +661,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -677,7 +677,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Martins Fontes
@@ -686,7 +686,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -699,7 +699,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">História do cinema, Evolução técnica
@@ -708,7 +708,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -724,7 +724,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">GG
@@ -733,17 +733,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Design
@@ -752,7 +752,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -765,7 +765,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Design gráfico, Layout, Tipografia
@@ -774,7 +774,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -790,7 +790,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Routledge
@@ -799,7 +799,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -812,7 +812,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Montagem de filme, Teoria da edição
@@ -821,7 +821,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -834,7 +834,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Editora 34
@@ -843,17 +843,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Filosofia
@@ -862,7 +862,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -875,7 +875,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Filosofia francesa, Henri Bergson
@@ -884,7 +884,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -900,7 +900,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Jorge Zahar
@@ -909,7 +909,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -922,7 +922,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Montagem intelectual, Estética russa
@@ -931,7 +931,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -947,7 +947,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Antropologia
@@ -956,7 +956,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -969,7 +969,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Antropologia visual, Performance
@@ -978,7 +978,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -994,7 +994,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Escrituras
@@ -1003,7 +1003,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1016,7 +1016,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Gestalt, Psicologia da forma
@@ -1025,7 +1025,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1041,7 +1041,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">LTC
@@ -1050,7 +1050,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1063,7 +1063,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Sistemas multimídia, Tecnologia
@@ -1072,7 +1072,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1088,7 +1088,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Falta editora
@@ -1097,17 +1097,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Artes
@@ -1116,7 +1116,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1129,7 +1129,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Processo criativo, Ficção
@@ -1138,7 +1138,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1154,7 +1154,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Novatec
@@ -1163,17 +1163,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Marketing
@@ -1182,7 +1182,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1195,7 +1195,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Marketing digital, SEO, SEM
@@ -1204,7 +1204,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1215,7 +1215,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Compreender o cinema e as imagens</t>
@@ -1223,7 +1223,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1232,17 +1232,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">René Gardies
@@ -1251,17 +1251,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Texto &amp; grafia
@@ -1270,7 +1270,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1280,7 +1280,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Obra que fornece chaves de leitura para interpretar a imagem cinematográfica, abordando a estética e a percepção visual.
@@ -1289,17 +1289,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Análise fílmica, estética, imagem
@@ -1308,17 +1308,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Cinema. Primeiro Filme. Descobrindo, Fazendo...
@@ -1327,17 +1327,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Carlos Gerbase
@@ -1346,17 +1346,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Artes e Ofícios
@@ -1365,7 +1365,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1375,7 +1375,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Um guia didático voltado para iniciantes, cobrindo as fases de criação, técnica e reflexão teórica do fazer cinematográfico.
@@ -1384,17 +1384,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Realização, prática, introdução
@@ -1403,7 +1403,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1414,7 +1414,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Imagem Digital Aplicada</t>
@@ -1422,7 +1422,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1431,17 +1431,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">João Gomide
@@ -1450,17 +1450,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Elsevier
@@ -1469,7 +1469,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1479,7 +1479,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Abordagem técnica e acadêmica sobre o processamento e estudo da imagem digital aplicada a contextos artísticos e tecnológicos.
@@ -1488,17 +1488,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Tecnologia, digital, imagem
@@ -1507,7 +1507,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1518,7 +1518,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Le Petit Nicolas a Des Ennuis</t>
@@ -1526,7 +1526,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1535,17 +1535,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Sempe Goscinny
@@ -1554,17 +1554,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Gallimard French
@@ -1573,7 +1573,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1583,7 +1583,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Ficção
@@ -1592,17 +1592,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Clássico da literatura infantil francesa que narra, com humor e ironia, as peripécias e "problemas" do personagem Nicolas.
@@ -1611,17 +1611,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Literatura francesa, humor
@@ -1630,7 +1630,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1641,7 +1641,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Dominando Técnicas Multicâmera</t>
@@ -1649,7 +1649,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1658,17 +1658,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Mitch Jacobson
@@ -1677,17 +1677,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Focal Press
@@ -1696,7 +1696,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1706,7 +1706,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Manual técnico avançado focado na produção e edição multicâmera para concertos, programas de TV e eventos ao vivo.
@@ -1715,17 +1715,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Multicâmera, produção técnica
@@ -1734,7 +1734,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1745,7 +1745,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>French: Lonely Planet Phrasebook</t>
@@ -1753,7 +1753,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1762,17 +1762,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Michael Janes
@@ -1781,17 +1781,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Lonely Planet
@@ -1800,7 +1800,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1810,7 +1810,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Idioma
@@ -1819,17 +1819,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Guia prático de bolso com frases essenciais e vocabulário para turistas em viagem por países de língua francesa.
@@ -1838,17 +1838,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Francês, viagem, guia
@@ -1857,7 +1857,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1868,7 +1868,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Reforma da previdência em perspectiva comparada</t>
@@ -1876,7 +1876,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -1885,17 +1885,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Sidney Jard
@@ -1904,17 +1904,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Assoc. Edit. Hur
@@ -1923,7 +1923,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -1933,7 +1933,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Ciência Política
@@ -1942,17 +1942,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Estudo de política pública que compara diferentes modelos de previdência social e os impactos das reformas no cenário global.
@@ -1961,17 +1961,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Política, previdência, análise
@@ -1980,7 +1980,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -1991,7 +1991,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Introdução à Análise da Imagem</t>
@@ -1999,7 +1999,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2008,17 +2008,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Martine Joly
@@ -2027,17 +2027,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Papirus
@@ -2046,7 +2046,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2056,7 +2056,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Texto seminal que introduz métodos de análise semiótica para decifrar mensagens visuais em fotos, anúncios e filmes.
@@ -2065,17 +2065,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Semiótica, imagem, análise visual
@@ -2084,7 +2084,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2095,7 +2095,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Cinema do Real - Coleção Portátil 26</t>
@@ -2103,7 +2103,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2112,17 +2112,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Amir Labaki
@@ -2131,17 +2131,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Cosac &amp; Naify
@@ -2150,7 +2150,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2160,7 +2160,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Coletânea que explora as fronteiras e estéticas do cinema documentário contemporâneo, focando na representação da realidade.
@@ -2169,17 +2169,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Documentário, realidade, cinema real
@@ -2188,7 +2188,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2199,7 +2199,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Rond-Point Pas a Pas: Livre De L'Eleve</t>
@@ -2207,7 +2207,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2216,17 +2216,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Josiane Labascoule
@@ -2235,17 +2235,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Difusion
@@ -2254,7 +2254,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2264,7 +2264,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Livro didático de língua francesa focado no aprendizado progressivo através de atividades práticas de conversação e gramática.
@@ -2273,17 +2273,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Francês, ensino, didático
@@ -2292,7 +2292,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2303,7 +2303,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>O Chip e o Caleidoscópio</t>
@@ -2311,7 +2311,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2320,17 +2320,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Lúcia Leão
@@ -2339,17 +2339,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Senac
@@ -2358,7 +2358,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2368,7 +2368,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Reflexões sobre as transformações da comunicação e da cultura digital na era das novas mídias e da convergência tecnológica.
@@ -2377,17 +2377,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Cultura digital, novas mídias
@@ -2396,7 +2396,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2407,7 +2407,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Como Fazer Documentários</t>
@@ -2415,7 +2415,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2424,17 +2424,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Luiz Carlos Lucena
@@ -2443,17 +2443,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Summus Editorial
@@ -2462,7 +2462,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2472,7 +2472,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Guia prático que aborda desde o conceito e roteiro até a finalização, focado na linguagem específica do gênero documental.
@@ -2481,17 +2481,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Documentário, prática, roteiro
@@ -2500,7 +2500,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2511,7 +2511,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>Novos Fundamentos Do Design</t>
@@ -2519,7 +2519,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2528,17 +2528,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Ellen Lupton
@@ -2547,17 +2547,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Cosacnaify
@@ -2566,7 +2566,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2576,7 +2576,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Revisita os princípios clássicos do design gráfico sob uma ótica moderna, tratando de tipografia, cor e composição visual.
@@ -2585,17 +2585,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Design gráfico, composição
@@ -2604,17 +2604,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Arte E Mídia. Coleção Arte +
@@ -2623,17 +2623,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Arlindo Machado
@@ -2642,17 +2642,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Zahar
@@ -2661,7 +2661,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+2</t>
@@ -2671,7 +2671,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Investigação sobre a interface entre arte e meios eletrônicos, discutindo vídeo, fotografia digital e arte generativa.
@@ -2680,17 +2680,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Arte eletrônica, vídeo, mídia
@@ -2699,7 +2699,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -2710,7 +2710,7 @@
       <rPr>
         <b val="1"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>A Nouvelle Vague e Godard</t>
@@ -2718,7 +2718,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">
@@ -2727,17 +2727,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Michel Marie
@@ -2746,17 +2746,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Análise histórica sobre o movimento da Nouvelle Vague francesa, com foco na ruptura estética e narrativa proposta por Jean-Luc Godard.
@@ -2765,17 +2765,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t xml:space="preserve">Nouvelle Vague, Godard, história
@@ -2784,7 +2784,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="15"/>
+        <color indexed="17"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>+1</t>
@@ -3094,7 +3094,7 @@
     <t>ANNABLUME</t>
   </si>
   <si>
-    <t>Analisa as características visuais e temáticas do gênero noir, focando no papel da fotografia e no uso dramático das sombras.</t>
+    <t>"The Lady from Shanghai" (1948) é um clássico noir. "Blade Runner" (1982) e "The Public Eye" (1992) revisitam e atualizam o noir. Os três filmes, núcleo do livro de Márcia Ortegosa, investigam o que está oculto, nas sombras. O livro explora o espelho sígnico, resgatando as conotações e ambiguidades que a estética de sombra e luzes do noir propicia. Discute a fragilidade dos reflexos, dos duplos e das sombras, dando a sensação do caráter efêmero das coisas. Espelho e fotografia são abordados como dois modos de parar o tempo e metáforas da reflexão crítica. A fotografia, com o congelamento das imagens, rompe a velocidade do tempo. O espelho cria duplicatas e fragmentações. Uma abordagem metalinguística e intertextual que dialoga com as artes pictóricas, a literatura e o cinema.</t>
   </si>
   <si>
     <t>Cinema noir, fotografia, estética</t>
@@ -3248,7 +3248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3260,6 +3260,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3268,21 +3273,21 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="13"/>
+      <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="13"/>
+      <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="15"/>
+      <color indexed="17"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3307,8 +3312,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3320,6 +3331,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -3333,7 +3366,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -3342,7 +3375,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3351,43 +3384,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3396,28 +3414,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3427,38 +3475,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3478,8 +3532,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff1f1f1f"/>
@@ -3501,10 +3557,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -3681,11 +3737,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3694,7 +3753,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3708,19 +3767,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3959,12 +4018,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -4245,7 +4304,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -4513,11 +4572,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -4529,1846 +4586,1846 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="44.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="170.35" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="9">
+      <c r="F4" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="G4" t="s" s="9">
+      <c r="G4" t="s" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="142.35" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s" s="8">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="9">
+      <c r="F5" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="G5" t="s" s="9">
+      <c r="G5" t="s" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="156.35" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s" s="8">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="9">
+      <c r="E6" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="9">
+      <c r="F6" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="G6" t="s" s="9">
+      <c r="G6" t="s" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="156.35" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s" s="8">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="9">
+      <c r="F7" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="G7" t="s" s="9">
+      <c r="G7" t="s" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="156.35" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s" s="8">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="F8" t="s" s="9">
+      <c r="F8" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="G8" t="s" s="9">
+      <c r="G8" t="s" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="142.35" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s" s="8">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F9" t="s" s="9">
+      <c r="F9" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="G9" t="s" s="9">
+      <c r="G9" t="s" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="156.35" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s" s="8">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" t="s" s="11">
         <v>40</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="9">
+      <c r="F10" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="G10" t="s" s="9">
+      <c r="G10" t="s" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="128.35" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="F11" t="s" s="9">
+      <c r="F11" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" t="s" s="11">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="170.35" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s" s="8">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="F12" t="s" s="9">
+      <c r="F12" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="G12" t="s" s="9">
+      <c r="G12" t="s" s="11">
         <v>53</v>
       </c>
     </row>
     <row r="13" ht="184.35" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s" s="8">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="F13" t="s" s="9">
+      <c r="F13" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="G13" t="s" s="9">
+      <c r="G13" t="s" s="11">
         <v>58</v>
       </c>
     </row>
     <row r="14" ht="184.35" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s" s="8">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="9">
+      <c r="F14" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="G14" t="s" s="9">
+      <c r="G14" t="s" s="11">
         <v>63</v>
       </c>
     </row>
     <row r="15" ht="156.35" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s" s="8">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" t="s" s="11">
         <v>65</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="9">
+      <c r="F15" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="G15" t="s" s="9">
+      <c r="G15" t="s" s="11">
         <v>68</v>
       </c>
     </row>
     <row r="16" ht="184.35" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s" s="8">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="D16" t="s" s="9">
+      <c r="D16" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="F16" t="s" s="9">
+      <c r="F16" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="G16" t="s" s="9">
+      <c r="G16" t="s" s="11">
         <v>73</v>
       </c>
     </row>
     <row r="17" ht="184.35" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s" s="8">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" t="s" s="11">
         <v>76</v>
       </c>
-      <c r="E17" t="s" s="9">
+      <c r="E17" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="9">
+      <c r="F17" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="G17" t="s" s="9">
+      <c r="G17" t="s" s="11">
         <v>78</v>
       </c>
     </row>
     <row r="18" ht="198.35" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s" s="8">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s" s="10">
         <v>79</v>
       </c>
-      <c r="C18" t="s" s="9">
+      <c r="C18" t="s" s="11">
         <v>80</v>
       </c>
-      <c r="D18" t="s" s="9">
+      <c r="D18" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E18" t="s" s="9">
+      <c r="E18" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="F18" t="s" s="9">
+      <c r="F18" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="9">
+      <c r="G18" t="s" s="11">
         <v>83</v>
       </c>
     </row>
     <row r="19" ht="156.35" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="8">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="9">
+      <c r="F19" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="9">
+      <c r="G19" t="s" s="11">
         <v>88</v>
       </c>
     </row>
     <row r="20" ht="170.35" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s" s="8">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s" s="10">
         <v>89</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" t="s" s="11">
         <v>90</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D20" t="s" s="11">
         <v>91</v>
       </c>
-      <c r="E20" t="s" s="9">
+      <c r="E20" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="9">
+      <c r="F20" t="s" s="11">
         <v>92</v>
       </c>
-      <c r="G20" t="s" s="9">
+      <c r="G20" t="s" s="11">
         <v>93</v>
       </c>
     </row>
     <row r="21" ht="184.35" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s" s="8">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="C21" t="s" s="9">
+      <c r="C21" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="E21" t="s" s="9">
+      <c r="E21" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F21" t="s" s="9">
+      <c r="F21" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="G21" t="s" s="9">
+      <c r="G21" t="s" s="11">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="184.35" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s" s="8">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="C22" t="s" s="9">
+      <c r="C22" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="E22" t="s" s="9">
+      <c r="E22" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="F22" t="s" s="9">
+      <c r="F22" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="G22" t="s" s="9">
+      <c r="G22" t="s" s="11">
         <v>103</v>
       </c>
     </row>
     <row r="23" ht="170.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s" s="8">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s" s="10">
         <v>104</v>
       </c>
-      <c r="C23" t="s" s="9">
+      <c r="C23" t="s" s="11">
         <v>105</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E23" t="s" s="9">
+      <c r="E23" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="F23" t="s" s="9">
+      <c r="F23" t="s" s="11">
         <v>107</v>
       </c>
-      <c r="G23" t="s" s="9">
+      <c r="G23" t="s" s="11">
         <v>108</v>
       </c>
     </row>
     <row r="24" ht="170.35" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s" s="8">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s" s="10">
         <v>109</v>
       </c>
-      <c r="C24" t="s" s="9">
+      <c r="C24" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="D24" t="s" s="9">
+      <c r="D24" t="s" s="11">
         <v>111</v>
       </c>
-      <c r="E24" t="s" s="9">
+      <c r="E24" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="9">
+      <c r="F24" t="s" s="11">
         <v>112</v>
       </c>
-      <c r="G24" t="s" s="9">
+      <c r="G24" t="s" s="11">
         <v>113</v>
       </c>
     </row>
     <row r="25" ht="184.35" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s" s="8">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s" s="10">
         <v>114</v>
       </c>
-      <c r="C25" t="s" s="9">
+      <c r="C25" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" t="s" s="11">
         <v>115</v>
       </c>
-      <c r="E25" t="s" s="9">
+      <c r="E25" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F25" t="s" s="9">
+      <c r="F25" t="s" s="11">
         <v>116</v>
       </c>
-      <c r="G25" t="s" s="9">
+      <c r="G25" t="s" s="11">
         <v>117</v>
       </c>
     </row>
     <row r="26" ht="170.35" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s" s="8">
+      <c r="A26" s="9"/>
+      <c r="B26" t="s" s="10">
         <v>118</v>
       </c>
-      <c r="C26" t="s" s="9">
+      <c r="C26" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" t="s" s="11">
         <v>76</v>
       </c>
-      <c r="E26" t="s" s="9">
+      <c r="E26" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="9">
+      <c r="F26" t="s" s="11">
         <v>120</v>
       </c>
-      <c r="G26" t="s" s="9">
+      <c r="G26" t="s" s="11">
         <v>121</v>
       </c>
     </row>
     <row r="27" ht="200.35" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="8">
+      <c r="A27" s="9"/>
+      <c r="B27" t="s" s="10">
         <v>122</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" t="s" s="11">
         <v>123</v>
       </c>
-      <c r="D27" t="s" s="9">
+      <c r="D27" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="E27" t="s" s="9">
+      <c r="E27" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F27" t="s" s="9">
+      <c r="F27" t="s" s="11">
         <v>126</v>
       </c>
-      <c r="G27" t="s" s="9">
+      <c r="G27" t="s" s="11">
         <v>127</v>
       </c>
     </row>
     <row r="28" ht="184.35" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s" s="8">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s" s="10">
         <v>128</v>
       </c>
-      <c r="C28" t="s" s="9">
+      <c r="C28" t="s" s="11">
         <v>129</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="E28" t="s" s="9">
+      <c r="E28" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="F28" t="s" s="9">
+      <c r="F28" t="s" s="11">
         <v>132</v>
       </c>
-      <c r="G28" t="s" s="9">
+      <c r="G28" t="s" s="11">
         <v>133</v>
       </c>
     </row>
     <row r="29" ht="170.35" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s" s="8">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s" s="10">
         <v>134</v>
       </c>
-      <c r="C29" t="s" s="9">
+      <c r="C29" t="s" s="11">
         <v>135</v>
       </c>
-      <c r="D29" t="s" s="9">
+      <c r="D29" t="s" s="11">
         <v>136</v>
       </c>
-      <c r="E29" t="s" s="9">
+      <c r="E29" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="F29" t="s" s="9">
+      <c r="F29" t="s" s="11">
         <v>137</v>
       </c>
-      <c r="G29" t="s" s="9">
+      <c r="G29" t="s" s="11">
         <v>138</v>
       </c>
     </row>
     <row r="30" ht="184.35" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s" s="8">
+      <c r="A30" s="9"/>
+      <c r="B30" t="s" s="10">
         <v>139</v>
       </c>
-      <c r="C30" t="s" s="9">
+      <c r="C30" t="s" s="11">
         <v>140</v>
       </c>
-      <c r="D30" t="s" s="9">
+      <c r="D30" t="s" s="11">
         <v>141</v>
       </c>
-      <c r="E30" t="s" s="9">
+      <c r="E30" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F30" t="s" s="9">
+      <c r="F30" t="s" s="11">
         <v>142</v>
       </c>
-      <c r="G30" t="s" s="9">
+      <c r="G30" t="s" s="11">
         <v>143</v>
       </c>
     </row>
     <row r="31" ht="198.35" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" t="s" s="10">
+      <c r="A31" s="9"/>
+      <c r="B31" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="C31" t="s" s="9">
+      <c r="C31" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="D31" t="s" s="9">
+      <c r="D31" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="E31" t="s" s="9">
+      <c r="E31" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F31" t="s" s="9">
+      <c r="F31" t="s" s="11">
         <v>147</v>
       </c>
-      <c r="G31" t="s" s="9">
+      <c r="G31" t="s" s="11">
         <v>148</v>
       </c>
     </row>
     <row r="32" ht="170.35" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s" s="8">
+      <c r="A32" s="9"/>
+      <c r="B32" t="s" s="10">
         <v>149</v>
       </c>
-      <c r="C32" t="s" s="9">
+      <c r="C32" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="D32" t="s" s="9">
+      <c r="D32" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="E32" t="s" s="9">
+      <c r="E32" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F32" t="s" s="9">
+      <c r="F32" t="s" s="11">
         <v>152</v>
       </c>
-      <c r="G32" t="s" s="9">
+      <c r="G32" t="s" s="11">
         <v>153</v>
       </c>
     </row>
     <row r="33" ht="170.35" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" t="s" s="8">
+      <c r="A33" s="9"/>
+      <c r="B33" t="s" s="10">
         <v>154</v>
       </c>
-      <c r="C33" t="s" s="9">
+      <c r="C33" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" t="s" s="11">
         <v>156</v>
       </c>
-      <c r="E33" t="s" s="9">
+      <c r="E33" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="F33" t="s" s="9">
+      <c r="F33" t="s" s="11">
         <v>158</v>
       </c>
-      <c r="G33" t="s" s="9">
+      <c r="G33" t="s" s="11">
         <v>159</v>
       </c>
     </row>
     <row r="34" ht="184.35" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" t="s" s="8">
+      <c r="A34" s="9"/>
+      <c r="B34" t="s" s="10">
         <v>160</v>
       </c>
-      <c r="C34" t="s" s="9">
+      <c r="C34" t="s" s="11">
         <v>161</v>
       </c>
-      <c r="D34" t="s" s="9">
+      <c r="D34" t="s" s="11">
         <v>162</v>
       </c>
-      <c r="E34" t="s" s="9">
+      <c r="E34" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F34" t="s" s="9">
+      <c r="F34" t="s" s="11">
         <v>163</v>
       </c>
-      <c r="G34" t="s" s="9">
+      <c r="G34" t="s" s="11">
         <v>164</v>
       </c>
     </row>
     <row r="35" ht="170.35" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" t="s" s="8">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="C35" t="s" s="9">
+      <c r="C35" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="D35" t="s" s="9">
+      <c r="D35" t="s" s="11">
         <v>166</v>
       </c>
-      <c r="E35" t="s" s="9">
+      <c r="E35" t="s" s="11">
         <v>167</v>
       </c>
-      <c r="F35" t="s" s="9">
+      <c r="F35" t="s" s="11">
         <v>168</v>
       </c>
-      <c r="G35" t="s" s="9">
+      <c r="G35" t="s" s="11">
         <v>169</v>
       </c>
     </row>
     <row r="36" ht="170.35" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" t="s" s="8">
+      <c r="A36" s="9"/>
+      <c r="B36" t="s" s="10">
         <v>170</v>
       </c>
-      <c r="C36" t="s" s="9">
+      <c r="C36" t="s" s="11">
         <v>171</v>
       </c>
-      <c r="D36" t="s" s="9">
+      <c r="D36" t="s" s="11">
         <v>172</v>
       </c>
-      <c r="E36" t="s" s="9">
+      <c r="E36" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F36" t="s" s="9">
+      <c r="F36" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="G36" t="s" s="9">
+      <c r="G36" t="s" s="11">
         <v>174</v>
       </c>
     </row>
     <row r="37" ht="184.35" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" t="s" s="8">
+      <c r="A37" s="9"/>
+      <c r="B37" t="s" s="10">
         <v>175</v>
       </c>
-      <c r="C37" t="s" s="9">
+      <c r="C37" t="s" s="11">
         <v>176</v>
       </c>
-      <c r="D37" t="s" s="9">
+      <c r="D37" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="E37" t="s" s="9">
+      <c r="E37" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="F37" t="s" s="9">
+      <c r="F37" t="s" s="11">
         <v>178</v>
       </c>
-      <c r="G37" t="s" s="9">
+      <c r="G37" t="s" s="11">
         <v>179</v>
       </c>
     </row>
     <row r="38" ht="170.35" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" t="s" s="8">
+      <c r="A38" s="9"/>
+      <c r="B38" t="s" s="10">
         <v>180</v>
       </c>
-      <c r="C38" t="s" s="9">
+      <c r="C38" t="s" s="11">
         <v>181</v>
       </c>
-      <c r="D38" t="s" s="9">
+      <c r="D38" t="s" s="11">
         <v>182</v>
       </c>
-      <c r="E38" t="s" s="9">
+      <c r="E38" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="F38" t="s" s="9">
+      <c r="F38" t="s" s="11">
         <v>183</v>
       </c>
-      <c r="G38" t="s" s="9">
+      <c r="G38" t="s" s="11">
         <v>184</v>
       </c>
     </row>
     <row r="39" ht="170.35" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" t="s" s="8">
+      <c r="A39" s="9"/>
+      <c r="B39" t="s" s="10">
         <v>185</v>
       </c>
-      <c r="C39" t="s" s="9">
+      <c r="C39" t="s" s="11">
         <v>186</v>
       </c>
-      <c r="D39" t="s" s="9">
+      <c r="D39" t="s" s="11">
         <v>187</v>
       </c>
-      <c r="E39" t="s" s="9">
+      <c r="E39" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="F39" t="s" s="9">
+      <c r="F39" t="s" s="11">
         <v>188</v>
       </c>
-      <c r="G39" t="s" s="9">
+      <c r="G39" t="s" s="11">
         <v>189</v>
       </c>
     </row>
     <row r="40" ht="170.35" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" t="s" s="8">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s" s="10">
         <v>190</v>
       </c>
-      <c r="C40" t="s" s="9">
+      <c r="C40" t="s" s="11">
         <v>191</v>
       </c>
-      <c r="D40" t="s" s="9">
+      <c r="D40" t="s" s="11">
         <v>192</v>
       </c>
-      <c r="E40" t="s" s="9">
+      <c r="E40" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="F40" t="s" s="9">
+      <c r="F40" t="s" s="11">
         <v>194</v>
       </c>
-      <c r="G40" t="s" s="9">
+      <c r="G40" t="s" s="11">
         <v>195</v>
       </c>
     </row>
     <row r="41" ht="170.35" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" t="s" s="8">
+      <c r="A41" s="9"/>
+      <c r="B41" t="s" s="10">
         <v>196</v>
       </c>
-      <c r="C41" t="s" s="9">
+      <c r="C41" t="s" s="11">
         <v>197</v>
       </c>
-      <c r="D41" t="s" s="9">
+      <c r="D41" t="s" s="11">
         <v>198</v>
       </c>
-      <c r="E41" t="s" s="9">
+      <c r="E41" t="s" s="11">
         <v>199</v>
       </c>
-      <c r="F41" t="s" s="9">
+      <c r="F41" t="s" s="11">
         <v>200</v>
       </c>
-      <c r="G41" t="s" s="9">
+      <c r="G41" t="s" s="11">
         <v>201</v>
       </c>
     </row>
     <row r="42" ht="200.35" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" t="s" s="8">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s" s="10">
         <v>202</v>
       </c>
-      <c r="C42" t="s" s="9">
+      <c r="C42" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="D42" t="s" s="9">
+      <c r="D42" t="s" s="11">
         <v>204</v>
       </c>
-      <c r="E42" t="s" s="9">
+      <c r="E42" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F42" t="s" s="9">
+      <c r="F42" t="s" s="11">
         <v>205</v>
       </c>
-      <c r="G42" t="s" s="9">
+      <c r="G42" t="s" s="11">
         <v>206</v>
       </c>
     </row>
     <row r="43" ht="214.35" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" t="s" s="10">
+      <c r="A43" s="9"/>
+      <c r="B43" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="C43" t="s" s="9">
+      <c r="C43" t="s" s="11">
         <v>208</v>
       </c>
-      <c r="D43" t="s" s="9">
+      <c r="D43" t="s" s="11">
         <v>209</v>
       </c>
-      <c r="E43" t="s" s="9">
+      <c r="E43" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F43" t="s" s="9">
+      <c r="F43" t="s" s="11">
         <v>210</v>
       </c>
-      <c r="G43" t="s" s="9">
+      <c r="G43" t="s" s="11">
         <v>211</v>
       </c>
     </row>
     <row r="44" ht="200.35" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" t="s" s="8">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s" s="10">
         <v>212</v>
       </c>
-      <c r="C44" t="s" s="9">
+      <c r="C44" t="s" s="11">
         <v>213</v>
       </c>
-      <c r="D44" t="s" s="9">
+      <c r="D44" t="s" s="11">
         <v>214</v>
       </c>
-      <c r="E44" t="s" s="9">
+      <c r="E44" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="F44" t="s" s="9">
+      <c r="F44" t="s" s="11">
         <v>215</v>
       </c>
-      <c r="G44" t="s" s="9">
+      <c r="G44" t="s" s="11">
         <v>216</v>
       </c>
     </row>
     <row r="45" ht="200.35" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" t="s" s="8">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s" s="10">
         <v>217</v>
       </c>
-      <c r="C45" t="s" s="9">
+      <c r="C45" t="s" s="11">
         <v>218</v>
       </c>
-      <c r="D45" t="s" s="9">
+      <c r="D45" t="s" s="11">
         <v>219</v>
       </c>
-      <c r="E45" t="s" s="9">
+      <c r="E45" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="F45" t="s" s="9">
+      <c r="F45" t="s" s="11">
         <v>221</v>
       </c>
-      <c r="G45" t="s" s="9">
+      <c r="G45" t="s" s="11">
         <v>222</v>
       </c>
     </row>
     <row r="46" ht="214.35" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" t="s" s="8">
+      <c r="A46" s="9"/>
+      <c r="B46" t="s" s="10">
         <v>223</v>
       </c>
-      <c r="C46" t="s" s="9">
+      <c r="C46" t="s" s="11">
         <v>224</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="D46" t="s" s="11">
         <v>225</v>
       </c>
-      <c r="E46" t="s" s="9">
+      <c r="E46" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F46" t="s" s="9">
+      <c r="F46" t="s" s="11">
         <v>226</v>
       </c>
-      <c r="G46" t="s" s="9">
+      <c r="G46" t="s" s="11">
         <v>227</v>
       </c>
     </row>
     <row r="47" ht="172.35" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" t="s" s="8">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s" s="10">
         <v>228</v>
       </c>
-      <c r="C47" t="s" s="9">
+      <c r="C47" t="s" s="11">
         <v>229</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="D47" t="s" s="11">
         <v>230</v>
       </c>
-      <c r="E47" t="s" s="9">
+      <c r="E47" t="s" s="11">
         <v>231</v>
       </c>
-      <c r="F47" t="s" s="9">
+      <c r="F47" t="s" s="11">
         <v>232</v>
       </c>
-      <c r="G47" t="s" s="9">
+      <c r="G47" t="s" s="11">
         <v>233</v>
       </c>
     </row>
     <row r="48" ht="200.35" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" t="s" s="8">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s" s="10">
         <v>234</v>
       </c>
-      <c r="C48" t="s" s="9">
+      <c r="C48" t="s" s="11">
         <v>235</v>
       </c>
-      <c r="D48" t="s" s="9">
+      <c r="D48" t="s" s="11">
         <v>236</v>
       </c>
-      <c r="E48" t="s" s="9">
+      <c r="E48" t="s" s="11">
         <v>237</v>
       </c>
-      <c r="F48" t="s" s="9">
+      <c r="F48" t="s" s="11">
         <v>238</v>
       </c>
-      <c r="G48" t="s" s="9">
+      <c r="G48" t="s" s="11">
         <v>239</v>
       </c>
     </row>
     <row r="49" ht="186.35" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" t="s" s="8">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s" s="10">
         <v>240</v>
       </c>
-      <c r="C49" t="s" s="9">
+      <c r="C49" t="s" s="11">
         <v>241</v>
       </c>
-      <c r="D49" t="s" s="9">
+      <c r="D49" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="E49" t="s" s="9">
+      <c r="E49" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="F49" t="s" s="9">
+      <c r="F49" t="s" s="11">
         <v>243</v>
       </c>
-      <c r="G49" t="s" s="9">
+      <c r="G49" t="s" s="11">
         <v>244</v>
       </c>
     </row>
     <row r="50" ht="200.35" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" t="s" s="8">
+      <c r="A50" s="9"/>
+      <c r="B50" t="s" s="10">
         <v>245</v>
       </c>
-      <c r="C50" t="s" s="9">
+      <c r="C50" t="s" s="11">
         <v>246</v>
       </c>
-      <c r="D50" t="s" s="9">
+      <c r="D50" t="s" s="11">
         <v>247</v>
       </c>
-      <c r="E50" t="s" s="9">
+      <c r="E50" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F50" t="s" s="9">
+      <c r="F50" t="s" s="11">
         <v>248</v>
       </c>
-      <c r="G50" t="s" s="9">
+      <c r="G50" t="s" s="11">
         <v>249</v>
       </c>
     </row>
     <row r="51" ht="186.35" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" t="s" s="8">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s" s="10">
         <v>250</v>
       </c>
-      <c r="C51" t="s" s="9">
+      <c r="C51" t="s" s="11">
         <v>251</v>
       </c>
-      <c r="D51" t="s" s="9">
+      <c r="D51" t="s" s="11">
         <v>252</v>
       </c>
-      <c r="E51" t="s" s="9">
+      <c r="E51" t="s" s="11">
         <v>231</v>
       </c>
-      <c r="F51" t="s" s="9">
+      <c r="F51" t="s" s="11">
         <v>253</v>
       </c>
-      <c r="G51" t="s" s="9">
+      <c r="G51" t="s" s="11">
         <v>254</v>
       </c>
     </row>
     <row r="52" ht="186.35" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" t="s" s="8">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s" s="10">
         <v>255</v>
       </c>
-      <c r="C52" t="s" s="9">
+      <c r="C52" t="s" s="11">
         <v>256</v>
       </c>
-      <c r="D52" t="s" s="9">
+      <c r="D52" t="s" s="11">
         <v>257</v>
       </c>
-      <c r="E52" t="s" s="9">
+      <c r="E52" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="F52" t="s" s="9">
+      <c r="F52" t="s" s="11">
         <v>258</v>
       </c>
-      <c r="G52" t="s" s="9">
+      <c r="G52" t="s" s="11">
         <v>259</v>
       </c>
     </row>
     <row r="53" ht="186.35" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" t="s" s="8">
+      <c r="A53" s="9"/>
+      <c r="B53" t="s" s="10">
         <v>260</v>
       </c>
-      <c r="C53" t="s" s="9">
+      <c r="C53" t="s" s="11">
         <v>261</v>
       </c>
-      <c r="D53" t="s" s="9">
+      <c r="D53" t="s" s="11">
         <v>262</v>
       </c>
-      <c r="E53" t="s" s="9">
+      <c r="E53" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F53" t="s" s="9">
+      <c r="F53" t="s" s="11">
         <v>263</v>
       </c>
-      <c r="G53" t="s" s="9">
+      <c r="G53" t="s" s="11">
         <v>264</v>
       </c>
     </row>
     <row r="54" ht="200.35" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" t="s" s="8">
+      <c r="A54" s="9"/>
+      <c r="B54" t="s" s="10">
         <v>265</v>
       </c>
-      <c r="C54" t="s" s="9">
+      <c r="C54" t="s" s="11">
         <v>266</v>
       </c>
-      <c r="D54" t="s" s="9">
+      <c r="D54" t="s" s="11">
         <v>267</v>
       </c>
-      <c r="E54" t="s" s="9">
+      <c r="E54" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="F54" t="s" s="9">
+      <c r="F54" t="s" s="11">
         <v>268</v>
       </c>
-      <c r="G54" t="s" s="9">
+      <c r="G54" t="s" s="11">
         <v>269</v>
       </c>
     </row>
     <row r="55" ht="186.35" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" t="s" s="10">
+      <c r="A55" s="9"/>
+      <c r="B55" t="s" s="12">
         <v>270</v>
       </c>
-      <c r="C55" t="s" s="9">
+      <c r="C55" t="s" s="11">
         <v>271</v>
       </c>
-      <c r="D55" t="s" s="9">
+      <c r="D55" t="s" s="11">
         <v>272</v>
       </c>
-      <c r="E55" t="s" s="9">
+      <c r="E55" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="F55" t="s" s="9">
+      <c r="F55" t="s" s="11">
         <v>273</v>
       </c>
-      <c r="G55" t="s" s="9">
+      <c r="G55" t="s" s="11">
         <v>274</v>
       </c>
     </row>
     <row r="56" ht="228.35" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" t="s" s="8">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s" s="10">
         <v>275</v>
       </c>
-      <c r="C56" t="s" s="9">
+      <c r="C56" t="s" s="11">
         <v>276</v>
       </c>
-      <c r="D56" t="s" s="9">
+      <c r="D56" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="E56" t="s" s="9">
+      <c r="E56" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F56" t="s" s="9">
+      <c r="F56" t="s" s="11">
         <v>277</v>
       </c>
-      <c r="G56" t="s" s="9">
+      <c r="G56" t="s" s="11">
         <v>278</v>
       </c>
     </row>
     <row r="57" ht="198.35" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" t="s" s="8">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s" s="10">
         <v>279</v>
       </c>
-      <c r="C57" t="s" s="9">
+      <c r="C57" t="s" s="11">
         <v>280</v>
       </c>
-      <c r="D57" t="s" s="9">
+      <c r="D57" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="E57" t="s" s="9">
+      <c r="E57" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F57" t="s" s="9">
+      <c r="F57" t="s" s="11">
         <v>281</v>
       </c>
-      <c r="G57" t="s" s="9">
+      <c r="G57" t="s" s="11">
         <v>282</v>
       </c>
     </row>
     <row r="58" ht="170.35" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" t="s" s="8">
+      <c r="A58" s="9"/>
+      <c r="B58" t="s" s="10">
         <v>283</v>
       </c>
-      <c r="C58" t="s" s="9">
+      <c r="C58" t="s" s="11">
         <v>284</v>
       </c>
-      <c r="D58" t="s" s="9">
+      <c r="D58" t="s" s="11">
         <v>285</v>
       </c>
-      <c r="E58" t="s" s="9">
+      <c r="E58" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F58" t="s" s="9">
+      <c r="F58" t="s" s="11">
         <v>286</v>
       </c>
-      <c r="G58" t="s" s="9">
+      <c r="G58" t="s" s="11">
         <v>287</v>
       </c>
     </row>
     <row r="59" ht="198.35" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" t="s" s="8">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s" s="10">
         <v>288</v>
       </c>
-      <c r="C59" t="s" s="9">
+      <c r="C59" t="s" s="11">
         <v>289</v>
       </c>
-      <c r="D59" t="s" s="9">
+      <c r="D59" t="s" s="11">
         <v>290</v>
       </c>
-      <c r="E59" t="s" s="9">
+      <c r="E59" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F59" t="s" s="9">
+      <c r="F59" t="s" s="11">
         <v>291</v>
       </c>
-      <c r="G59" t="s" s="9">
+      <c r="G59" t="s" s="11">
         <v>292</v>
       </c>
     </row>
     <row r="60" ht="170.35" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" t="s" s="8">
+      <c r="A60" s="9"/>
+      <c r="B60" t="s" s="10">
         <v>293</v>
       </c>
-      <c r="C60" t="s" s="9">
+      <c r="C60" t="s" s="11">
         <v>294</v>
       </c>
-      <c r="D60" t="s" s="9">
+      <c r="D60" t="s" s="11">
         <v>295</v>
       </c>
-      <c r="E60" t="s" s="9">
+      <c r="E60" t="s" s="11">
         <v>296</v>
       </c>
-      <c r="F60" t="s" s="9">
+      <c r="F60" t="s" s="11">
         <v>297</v>
       </c>
-      <c r="G60" t="s" s="9">
+      <c r="G60" t="s" s="11">
         <v>298</v>
       </c>
     </row>
     <row r="61" ht="170.35" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" t="s" s="8">
+      <c r="A61" s="9"/>
+      <c r="B61" t="s" s="10">
         <v>299</v>
       </c>
-      <c r="C61" t="s" s="9">
+      <c r="C61" t="s" s="11">
         <v>294</v>
       </c>
-      <c r="D61" t="s" s="9">
+      <c r="D61" t="s" s="11">
         <v>295</v>
       </c>
-      <c r="E61" t="s" s="9">
+      <c r="E61" t="s" s="11">
         <v>296</v>
       </c>
-      <c r="F61" t="s" s="9">
+      <c r="F61" t="s" s="11">
         <v>300</v>
       </c>
-      <c r="G61" t="s" s="9">
+      <c r="G61" t="s" s="11">
         <v>301</v>
       </c>
     </row>
     <row r="62" ht="170.35" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" t="s" s="8">
+      <c r="A62" s="9"/>
+      <c r="B62" t="s" s="10">
         <v>302</v>
       </c>
-      <c r="C62" t="s" s="9">
+      <c r="C62" t="s" s="11">
         <v>303</v>
       </c>
-      <c r="D62" t="s" s="9">
+      <c r="D62" t="s" s="11">
         <v>304</v>
       </c>
-      <c r="E62" t="s" s="9">
+      <c r="E62" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F62" t="s" s="9">
+      <c r="F62" t="s" s="11">
         <v>305</v>
       </c>
-      <c r="G62" t="s" s="9">
+      <c r="G62" t="s" s="11">
         <v>306</v>
       </c>
     </row>
     <row r="63" ht="142.35" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" t="s" s="8">
+      <c r="A63" s="9"/>
+      <c r="B63" t="s" s="10">
         <v>307</v>
       </c>
-      <c r="C63" t="s" s="9">
+      <c r="C63" t="s" s="11">
         <v>308</v>
       </c>
-      <c r="D63" t="s" s="9">
+      <c r="D63" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="E63" t="s" s="9">
+      <c r="E63" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="F63" t="s" s="9">
+      <c r="F63" t="s" s="11">
         <v>310</v>
       </c>
-      <c r="G63" t="s" s="9">
+      <c r="G63" t="s" s="11">
         <v>311</v>
       </c>
     </row>
     <row r="64" ht="184.35" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" t="s" s="8">
+      <c r="A64" s="9"/>
+      <c r="B64" t="s" s="10">
         <v>312</v>
       </c>
-      <c r="C64" t="s" s="9">
+      <c r="C64" t="s" s="11">
         <v>313</v>
       </c>
-      <c r="D64" t="s" s="9">
+      <c r="D64" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="E64" t="s" s="9">
+      <c r="E64" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="F64" t="s" s="9">
+      <c r="F64" t="s" s="11">
         <v>314</v>
       </c>
-      <c r="G64" t="s" s="9">
+      <c r="G64" t="s" s="11">
         <v>315</v>
       </c>
     </row>
     <row r="65" ht="184.35" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" t="s" s="8">
+      <c r="A65" s="9"/>
+      <c r="B65" t="s" s="10">
         <v>316</v>
       </c>
-      <c r="C65" t="s" s="9">
+      <c r="C65" t="s" s="11">
         <v>317</v>
       </c>
-      <c r="D65" t="s" s="9">
+      <c r="D65" t="s" s="11">
         <v>318</v>
       </c>
-      <c r="E65" t="s" s="9">
+      <c r="E65" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F65" t="s" s="9">
+      <c r="F65" t="s" s="11">
         <v>319</v>
       </c>
-      <c r="G65" t="s" s="9">
+      <c r="G65" t="s" s="11">
         <v>320</v>
       </c>
     </row>
     <row r="66" ht="156.35" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" t="s" s="8">
+      <c r="A66" s="9"/>
+      <c r="B66" t="s" s="10">
         <v>321</v>
       </c>
-      <c r="C66" t="s" s="9">
+      <c r="C66" t="s" s="11">
         <v>322</v>
       </c>
-      <c r="D66" t="s" s="9">
+      <c r="D66" t="s" s="11">
         <v>323</v>
       </c>
-      <c r="E66" t="s" s="9">
+      <c r="E66" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F66" t="s" s="9">
+      <c r="F66" t="s" s="11">
         <v>324</v>
       </c>
-      <c r="G66" t="s" s="9">
+      <c r="G66" t="s" s="11">
         <v>325</v>
       </c>
     </row>
     <row r="67" ht="170.35" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" t="s" s="8">
+      <c r="A67" s="9"/>
+      <c r="B67" t="s" s="10">
         <v>326</v>
       </c>
-      <c r="C67" t="s" s="9">
+      <c r="C67" t="s" s="11">
         <v>327</v>
       </c>
-      <c r="D67" t="s" s="9">
+      <c r="D67" t="s" s="11">
         <v>328</v>
       </c>
-      <c r="E67" t="s" s="9">
+      <c r="E67" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F67" t="s" s="9">
+      <c r="F67" t="s" s="11">
         <v>329</v>
       </c>
-      <c r="G67" t="s" s="9">
+      <c r="G67" t="s" s="11">
         <v>330</v>
       </c>
     </row>
     <row r="68" ht="198.35" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" t="s" s="8">
+      <c r="A68" s="9"/>
+      <c r="B68" t="s" s="10">
         <v>331</v>
       </c>
-      <c r="C68" t="s" s="9">
+      <c r="C68" t="s" s="11">
         <v>332</v>
       </c>
-      <c r="D68" t="s" s="9">
+      <c r="D68" t="s" s="11">
         <v>333</v>
       </c>
-      <c r="E68" t="s" s="9">
+      <c r="E68" t="s" s="11">
         <v>334</v>
       </c>
-      <c r="F68" t="s" s="9">
+      <c r="F68" t="s" s="11">
         <v>335</v>
       </c>
-      <c r="G68" t="s" s="9">
+      <c r="G68" t="s" s="11">
         <v>336</v>
       </c>
     </row>
     <row r="69" ht="156.35" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" t="s" s="8">
+      <c r="A69" s="9"/>
+      <c r="B69" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="C69" t="s" s="9">
+      <c r="C69" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="D69" t="s" s="9">
+      <c r="D69" t="s" s="11">
         <v>337</v>
       </c>
-      <c r="E69" t="s" s="9">
+      <c r="E69" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="F69" t="s" s="9">
+      <c r="F69" t="s" s="11">
         <v>338</v>
       </c>
-      <c r="G69" t="s" s="9">
+      <c r="G69" t="s" s="11">
         <v>339</v>
       </c>
     </row>
     <row r="70" ht="170.35" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" t="s" s="8">
+      <c r="A70" s="9"/>
+      <c r="B70" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="C70" t="s" s="9">
+      <c r="C70" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="D70" t="s" s="9">
+      <c r="D70" t="s" s="11">
         <v>337</v>
       </c>
-      <c r="E70" t="s" s="9">
+      <c r="E70" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F70" t="s" s="9">
+      <c r="F70" t="s" s="11">
         <v>340</v>
       </c>
-      <c r="G70" t="s" s="9">
+      <c r="G70" t="s" s="11">
         <v>341</v>
       </c>
     </row>
     <row r="71" ht="156.35" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" t="s" s="8">
+      <c r="A71" s="9"/>
+      <c r="B71" t="s" s="10">
         <v>342</v>
       </c>
-      <c r="C71" t="s" s="9">
+      <c r="C71" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="D71" t="s" s="9">
+      <c r="D71" t="s" s="11">
         <v>304</v>
       </c>
-      <c r="E71" t="s" s="9">
+      <c r="E71" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F71" t="s" s="9">
+      <c r="F71" t="s" s="11">
         <v>343</v>
       </c>
-      <c r="G71" t="s" s="9">
+      <c r="G71" t="s" s="11">
         <v>344</v>
       </c>
     </row>
     <row r="72" ht="184.35" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" t="s" s="8">
+      <c r="A72" s="9"/>
+      <c r="B72" t="s" s="10">
         <v>345</v>
       </c>
-      <c r="C72" t="s" s="9">
+      <c r="C72" t="s" s="11">
         <v>346</v>
       </c>
-      <c r="D72" t="s" s="9">
+      <c r="D72" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E72" t="s" s="9">
+      <c r="E72" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="F72" t="s" s="9">
+      <c r="F72" t="s" s="11">
         <v>347</v>
       </c>
-      <c r="G72" t="s" s="9">
+      <c r="G72" t="s" s="11">
         <v>348</v>
       </c>
     </row>
     <row r="73" ht="184.35" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" t="s" s="8">
+      <c r="A73" s="9"/>
+      <c r="B73" t="s" s="10">
         <v>349</v>
       </c>
-      <c r="C73" t="s" s="9">
+      <c r="C73" t="s" s="11">
         <v>350</v>
       </c>
-      <c r="D73" t="s" s="9">
+      <c r="D73" t="s" s="11">
         <v>76</v>
       </c>
-      <c r="E73" t="s" s="9">
+      <c r="E73" t="s" s="11">
         <v>296</v>
       </c>
-      <c r="F73" t="s" s="9">
+      <c r="F73" t="s" s="11">
         <v>351</v>
       </c>
-      <c r="G73" t="s" s="9">
+      <c r="G73" t="s" s="11">
         <v>352</v>
       </c>
     </row>
     <row r="74" ht="170.35" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" t="s" s="8">
+      <c r="A74" s="9"/>
+      <c r="B74" t="s" s="10">
         <v>353</v>
       </c>
-      <c r="C74" t="s" s="9">
+      <c r="C74" t="s" s="11">
         <v>354</v>
       </c>
-      <c r="D74" t="s" s="9">
+      <c r="D74" t="s" s="11">
         <v>285</v>
       </c>
-      <c r="E74" t="s" s="9">
+      <c r="E74" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F74" t="s" s="9">
+      <c r="F74" t="s" s="11">
         <v>355</v>
       </c>
-      <c r="G74" t="s" s="9">
+      <c r="G74" t="s" s="11">
         <v>356</v>
       </c>
     </row>
     <row r="75" ht="198.35" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" t="s" s="8">
+      <c r="A75" s="9"/>
+      <c r="B75" t="s" s="10">
         <v>357</v>
       </c>
-      <c r="C75" t="s" s="9">
+      <c r="C75" t="s" s="11">
         <v>358</v>
       </c>
-      <c r="D75" t="s" s="9">
+      <c r="D75" t="s" s="11">
         <v>359</v>
       </c>
-      <c r="E75" t="s" s="9">
+      <c r="E75" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="F75" t="s" s="9">
+      <c r="F75" t="s" s="11">
         <v>360</v>
       </c>
-      <c r="G75" t="s" s="9">
+      <c r="G75" t="s" s="11">
         <v>361</v>
       </c>
     </row>
     <row r="76" ht="170.35" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" t="s" s="8">
+      <c r="A76" s="9"/>
+      <c r="B76" t="s" s="10">
         <v>362</v>
       </c>
-      <c r="C76" t="s" s="9">
+      <c r="C76" t="s" s="11">
         <v>363</v>
       </c>
-      <c r="D76" t="s" s="9">
+      <c r="D76" t="s" s="11">
         <v>364</v>
       </c>
-      <c r="E76" t="s" s="9">
+      <c r="E76" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F76" t="s" s="9">
+      <c r="F76" t="s" s="11">
         <v>365</v>
       </c>
-      <c r="G76" t="s" s="9">
+      <c r="G76" t="s" s="11">
         <v>366</v>
       </c>
     </row>
     <row r="77" ht="184.35" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" t="s" s="8">
+      <c r="A77" s="9"/>
+      <c r="B77" t="s" s="10">
         <v>367</v>
       </c>
-      <c r="C77" t="s" s="9">
+      <c r="C77" t="s" s="11">
         <v>368</v>
       </c>
-      <c r="D77" t="s" s="9">
+      <c r="D77" t="s" s="11">
         <v>369</v>
       </c>
-      <c r="E77" t="s" s="9">
+      <c r="E77" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F77" t="s" s="9">
+      <c r="F77" t="s" s="11">
         <v>370</v>
       </c>
-      <c r="G77" t="s" s="9">
+      <c r="G77" t="s" s="11">
         <v>371</v>
       </c>
     </row>
     <row r="78" ht="184.35" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" t="s" s="8">
+      <c r="A78" s="9"/>
+      <c r="B78" t="s" s="10">
         <v>372</v>
       </c>
-      <c r="C78" t="s" s="9">
+      <c r="C78" t="s" s="11">
         <v>373</v>
       </c>
-      <c r="D78" t="s" s="9">
+      <c r="D78" t="s" s="11">
         <v>374</v>
       </c>
-      <c r="E78" t="s" s="9">
+      <c r="E78" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F78" t="s" s="9">
+      <c r="F78" t="s" s="11">
         <v>375</v>
       </c>
-      <c r="G78" t="s" s="9">
+      <c r="G78" t="s" s="11">
         <v>376</v>
       </c>
     </row>
     <row r="79" ht="170.35" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" t="s" s="8">
+      <c r="A79" s="9"/>
+      <c r="B79" t="s" s="10">
         <v>377</v>
       </c>
-      <c r="C79" t="s" s="9">
+      <c r="C79" t="s" s="11">
         <v>378</v>
       </c>
-      <c r="D79" t="s" s="9">
+      <c r="D79" t="s" s="11">
         <v>379</v>
       </c>
-      <c r="E79" t="s" s="9">
+      <c r="E79" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F79" t="s" s="9">
+      <c r="F79" t="s" s="11">
         <v>380</v>
       </c>
-      <c r="G79" t="s" s="9">
+      <c r="G79" t="s" s="11">
         <v>381</v>
       </c>
     </row>
     <row r="80" ht="170.35" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" t="s" s="8">
+      <c r="A80" s="9"/>
+      <c r="B80" t="s" s="10">
         <v>382</v>
       </c>
-      <c r="C80" t="s" s="9">
+      <c r="C80" t="s" s="11">
         <v>383</v>
       </c>
-      <c r="D80" t="s" s="9">
+      <c r="D80" t="s" s="11">
         <v>384</v>
       </c>
-      <c r="E80" t="s" s="9">
+      <c r="E80" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="F80" t="s" s="9">
+      <c r="F80" t="s" s="11">
         <v>385</v>
       </c>
-      <c r="G80" t="s" s="9">
+      <c r="G80" t="s" s="11">
         <v>386</v>
       </c>
     </row>
     <row r="81" ht="170.35" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" t="s" s="8">
+      <c r="A81" s="9"/>
+      <c r="B81" t="s" s="10">
         <v>387</v>
       </c>
-      <c r="C81" t="s" s="9">
+      <c r="C81" t="s" s="11">
         <v>388</v>
       </c>
-      <c r="D81" t="s" s="9">
+      <c r="D81" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="E81" t="s" s="9">
+      <c r="E81" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F81" t="s" s="9">
+      <c r="F81" t="s" s="11">
         <v>389</v>
       </c>
-      <c r="G81" t="s" s="9">
+      <c r="G81" t="s" s="11">
         <v>390</v>
       </c>
     </row>
     <row r="82" ht="170.35" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" t="s" s="8">
+      <c r="A82" s="9"/>
+      <c r="B82" t="s" s="10">
         <v>391</v>
       </c>
-      <c r="C82" t="s" s="9">
+      <c r="C82" t="s" s="11">
         <v>392</v>
       </c>
-      <c r="D82" t="s" s="9">
+      <c r="D82" t="s" s="11">
         <v>393</v>
       </c>
-      <c r="E82" t="s" s="9">
+      <c r="E82" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F82" t="s" s="9">
+      <c r="F82" t="s" s="11">
         <v>394</v>
       </c>
-      <c r="G82" t="s" s="9">
+      <c r="G82" t="s" s="11">
         <v>395</v>
       </c>
     </row>
     <row r="83" ht="184.35" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" t="s" s="8">
+      <c r="A83" s="9"/>
+      <c r="B83" t="s" s="10">
         <v>396</v>
       </c>
-      <c r="C83" t="s" s="9">
+      <c r="C83" t="s" s="11">
         <v>397</v>
       </c>
-      <c r="D83" t="s" s="9">
+      <c r="D83" t="s" s="11">
         <v>398</v>
       </c>
-      <c r="E83" t="s" s="9">
+      <c r="E83" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="F83" t="s" s="9">
+      <c r="F83" t="s" s="11">
         <v>399</v>
       </c>
-      <c r="G83" t="s" s="9">
+      <c r="G83" t="s" s="11">
         <v>400</v>
       </c>
     </row>
     <row r="84" ht="184.35" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" t="s" s="8">
+      <c r="A84" s="9"/>
+      <c r="B84" t="s" s="10">
         <v>401</v>
       </c>
-      <c r="C84" t="s" s="9">
+      <c r="C84" t="s" s="11">
         <v>402</v>
       </c>
-      <c r="D84" t="s" s="9">
+      <c r="D84" t="s" s="11">
         <v>403</v>
       </c>
-      <c r="E84" t="s" s="9">
+      <c r="E84" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F84" t="s" s="9">
+      <c r="F84" t="s" s="11">
         <v>404</v>
       </c>
-      <c r="G84" t="s" s="9">
+      <c r="G84" t="s" s="11">
         <v>405</v>
       </c>
     </row>
     <row r="85" ht="184.35" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" t="s" s="8">
+      <c r="A85" s="9"/>
+      <c r="B85" t="s" s="10">
         <v>406</v>
       </c>
-      <c r="C85" t="s" s="9">
+      <c r="C85" t="s" s="11">
         <v>407</v>
       </c>
-      <c r="D85" t="s" s="9">
+      <c r="D85" t="s" s="11">
         <v>408</v>
       </c>
-      <c r="E85" t="s" s="9">
+      <c r="E85" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="F85" t="s" s="9">
+      <c r="F85" t="s" s="11">
         <v>409</v>
       </c>
-      <c r="G85" t="s" s="9">
+      <c r="G85" t="s" s="11">
         <v>410</v>
       </c>
     </row>
     <row r="86" ht="184.35" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" t="s" s="8">
+      <c r="A86" s="9"/>
+      <c r="B86" t="s" s="10">
         <v>411</v>
       </c>
-      <c r="C86" t="s" s="9">
+      <c r="C86" t="s" s="11">
         <v>412</v>
       </c>
-      <c r="D86" t="s" s="9">
+      <c r="D86" t="s" s="11">
         <v>413</v>
       </c>
-      <c r="E86" t="s" s="9">
+      <c r="E86" t="s" s="11">
         <v>414</v>
       </c>
-      <c r="F86" t="s" s="9">
+      <c r="F86" t="s" s="11">
         <v>415</v>
       </c>
-      <c r="G86" t="s" s="9">
+      <c r="G86" t="s" s="11">
         <v>416</v>
       </c>
     </row>
     <row r="87" ht="170.35" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" t="s" s="8">
+      <c r="A87" s="9"/>
+      <c r="B87" t="s" s="10">
         <v>417</v>
       </c>
-      <c r="C87" t="s" s="9">
+      <c r="C87" t="s" s="11">
         <v>418</v>
       </c>
-      <c r="D87" t="s" s="9">
+      <c r="D87" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E87" t="s" s="9">
+      <c r="E87" t="s" s="11">
         <v>334</v>
       </c>
-      <c r="F87" t="s" s="9">
+      <c r="F87" t="s" s="11">
         <v>419</v>
       </c>
-      <c r="G87" t="s" s="9">
+      <c r="G87" t="s" s="11">
         <v>420</v>
       </c>
     </row>
     <row r="88" ht="212.35" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" t="s" s="8">
+      <c r="A88" s="9"/>
+      <c r="B88" t="s" s="10">
         <v>421</v>
       </c>
-      <c r="C88" t="s" s="9">
+      <c r="C88" t="s" s="11">
         <v>422</v>
       </c>
-      <c r="D88" t="s" s="9">
+      <c r="D88" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="E88" t="s" s="9">
+      <c r="E88" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F88" t="s" s="9">
+      <c r="F88" t="s" s="11">
         <v>423</v>
       </c>
-      <c r="G88" t="s" s="9">
+      <c r="G88" t="s" s="11">
         <v>424</v>
       </c>
     </row>
     <row r="89" ht="184.35" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" t="s" s="8">
+      <c r="A89" s="9"/>
+      <c r="B89" t="s" s="10">
         <v>425</v>
       </c>
-      <c r="C89" t="s" s="9">
+      <c r="C89" t="s" s="11">
         <v>426</v>
       </c>
-      <c r="D89" t="s" s="9">
+      <c r="D89" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E89" t="s" s="9">
+      <c r="E89" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="F89" t="s" s="9">
+      <c r="F89" t="s" s="11">
         <v>427</v>
       </c>
-      <c r="G89" t="s" s="9">
+      <c r="G89" t="s" s="11">
         <v>428</v>
       </c>
     </row>

--- a/biblioteca.xlsx
+++ b/biblioteca.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>Table 1</t>
   </si>
@@ -34,6 +34,51 @@
     <t>Palavras-Chave</t>
   </si>
   <si>
+    <t>ENTRELAÇAMENTOS, INTERFACES, HIBRIDISMOS, PASSAGENS  EM
+ANJOS DA NOITE,   A DAMA DO CINE SHANGAI   e    CIDADE OCULTA</t>
+  </si>
+  <si>
+    <t>Maurício Cândido Taveira</t>
+  </si>
+  <si>
+    <t>Dissertação de Mestrado, 2001</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>O presente trabalho trata dos espaços nos quais se operam fundamentalmente as 
+diversas formas de passagens. Se, no século XIX, conforme Baudelaire, as galerias 
+são os espaços privilegiados das passagens (para o passante e para o flâneur), 
+no século XX, o vídeo, a imagem eletrônica analógica, a imagem cinematográfica, os cruzamentos, os entrelaçamentos das narrativas fílmicas e suas interfaces 
+e conexões, podem ser seus substitutos. São as passagens de nosso tempo. Os 
+locais onde se efetuam cada vez mais as passagens, as “contaminações”. 
+Para percorrermos esses espaços, partiremos de três filmes brasileiros em que, 
+já nos anos 80, se encontram tais elementos: Anjos da Noite, A Dama do Cine 
+Shangai e Cidade Oculta.
+Em Anjos da Noite, o vídeo, em combinação com a imagem fotoquímica, 
+especificamente nos planos videográficos, torna tênue e “contamina” toda a 
+estrutura narrativa da obra em destaque. Ele introduz a “desordem”. Liga, separa, 
+combina, fragmenta, por exemplo, dois planos, duas cenas ou duas seqüências 
+de planos cinematográficos. Mas é aí, sobretudo, no hibridismo entre os modos 
+de imagens videográficos e cinematográficos que se localizam as passagens 
+de Anjos da Noite.
+Em A Dama do Cine Shangai, as passagens ocorrem através dos entrelaçamentos 
+e entrecruzamentos narrativos, quando personagens, objetos, etc. se misturam 
+com outros de outras histórias e de outras películas. Para esse trabalho, examinamos os encaixes com os seguintes filmes: A Dama de Shangai (1948), de Orson 
+Welles, Flor do Desejo (1985) e A Hora Mágica (1998), ambos de Guilherme de 
+Almeida Prado; tratamos também dos seus intercruzamentos com a filmografia 
+noir dos anos 40 e 50.
+ Em Cidade Oculta, o vídeo, uma máquina de tarô e a personagem Shirley 
+Sombra, uma espécie de Parca moderna, localizam as interfaces de passagens 
+do filme em destaque. Shirley Sombra, a partir de uma máquina de tarô, funde 
+dois espaços distintos e exibe os espaços híbridos e as conexões de passagens 
+na narrativa de Cidade Oculta</t>
+  </si>
+  <si>
+    <t>Análise fílmica, cinema, cinema noir, cinema neonoir, cinema neo-noir, filme noir, filme neo-noir, passagens, Baudelaire, A dama de Xangai, Orson Welles</t>
+  </si>
+  <si>
     <t>A Imagem</t>
   </si>
   <si>
@@ -43,13 +88,7 @@
     <t>Papirus</t>
   </si>
   <si>
-    <t>Cinema</t>
-  </si>
-  <si>
     <t>Analisa a imagem sob as perspectivas do olho, do espírito e do dispositivo, discutindo como percebemos o visual.</t>
-  </si>
-  <si>
-    <t>Estética, Percepção, Teoria da Imagem</t>
   </si>
   <si>
     <t>A Estética do Filme</t>
@@ -3248,7 +3287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3275,6 +3314,11 @@
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial Narrow"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3475,7 +3519,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3506,13 +3550,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4572,7 +4619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4644,433 +4691,431 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="142.35" customHeight="1">
+    <row r="5" ht="170.35" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="12">
         <v>13</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F5" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="142.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="G5" t="s" s="11">
+      <c r="D6" t="s" s="11">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="156.35" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>18</v>
       </c>
       <c r="E6" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F6" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="11">
         <v>19</v>
-      </c>
-      <c r="G6" t="s" s="11">
-        <v>20</v>
       </c>
     </row>
     <row r="7" ht="156.35" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="D7" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="E7" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="G7" t="s" s="11">
         <v>24</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="11">
-        <v>26</v>
       </c>
     </row>
     <row r="8" ht="156.35" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="E8" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="F8" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="G8" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="F8" t="s" s="11">
+    </row>
+    <row r="9" ht="156.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="C9" t="s" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" ht="142.35" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="10">
+      <c r="D9" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="E9" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="F9" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E9" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="11">
+      <c r="G9" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="G9" t="s" s="11">
+    </row>
+    <row r="10" ht="142.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" ht="156.35" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s" s="10">
+      <c r="C10" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="D10" t="s" s="11">
         <v>39</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>40</v>
       </c>
       <c r="E10" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F10" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="G10" t="s" s="11">
+    </row>
+    <row r="11" ht="156.35" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" ht="128.35" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s" s="10">
+      <c r="C11" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="D11" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="E11" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="E11" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="11">
+      <c r="G11" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="G11" t="s" s="11">
+    </row>
+    <row r="12" ht="128.35" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s" s="12">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" ht="170.35" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s" s="10">
+      <c r="C12" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="D12" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="E12" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="E12" t="s" s="11">
+      <c r="G12" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="F12" t="s" s="11">
+    </row>
+    <row r="13" ht="170.35" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="G12" t="s" s="11">
+      <c r="C13" t="s" s="11">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" ht="184.35" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" t="s" s="10">
+      <c r="D13" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="E13" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="F13" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E13" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s" s="11">
+      <c r="G13" t="s" s="11">
         <v>57</v>
-      </c>
-      <c r="G13" t="s" s="11">
-        <v>58</v>
       </c>
     </row>
     <row r="14" ht="184.35" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" t="s" s="10">
+      <c r="B14" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="D14" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="E14" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="E14" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="11">
+      <c r="G14" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="G14" t="s" s="11">
+    </row>
+    <row r="15" ht="184.35" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" ht="156.35" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s" s="10">
+      <c r="C15" t="s" s="11">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="D15" t="s" s="11">
         <v>65</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>66</v>
       </c>
       <c r="E15" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F15" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="G15" t="s" s="11">
+    </row>
+    <row r="16" ht="156.35" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" ht="184.35" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s" s="10">
+      <c r="C16" t="s" s="11">
         <v>69</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="D16" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="D16" t="s" s="11">
-        <v>56</v>
-      </c>
       <c r="E16" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="F16" t="s" s="11">
+      <c r="G16" t="s" s="11">
         <v>72</v>
-      </c>
-      <c r="G16" t="s" s="11">
-        <v>73</v>
       </c>
     </row>
     <row r="17" ht="184.35" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" t="s" s="10">
+      <c r="B17" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="D17" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="F17" t="s" s="11">
         <v>76</v>
       </c>
-      <c r="E17" t="s" s="11">
+      <c r="G17" t="s" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" ht="184.35" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s" s="11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" ht="198.35" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s" s="11">
+      <c r="F18" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="F18" t="s" s="11">
+      <c r="G18" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="11">
+    </row>
+    <row r="19" ht="198.35" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s" s="12">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" ht="156.35" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" t="s" s="10">
+      <c r="C19" t="s" s="11">
         <v>84</v>
       </c>
-      <c r="C19" t="s" s="11">
+      <c r="D19" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="D19" t="s" s="11">
+      <c r="F19" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="E19" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s" s="11">
+      <c r="G19" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="11">
+    </row>
+    <row r="20" ht="156.35" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s" s="12">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" ht="170.35" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s" s="10">
+      <c r="C20" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="C20" t="s" s="11">
+      <c r="D20" t="s" s="11">
         <v>90</v>
-      </c>
-      <c r="D20" t="s" s="11">
-        <v>91</v>
       </c>
       <c r="E20" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F20" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s" s="11">
         <v>92</v>
       </c>
-      <c r="G20" t="s" s="11">
+    </row>
+    <row r="21" ht="170.35" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s" s="12">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" ht="184.35" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s" s="10">
+      <c r="C21" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="C21" t="s" s="11">
+      <c r="D21" t="s" s="11">
         <v>95</v>
-      </c>
-      <c r="D21" t="s" s="11">
-        <v>96</v>
       </c>
       <c r="E21" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F21" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s" s="11">
         <v>97</v>
-      </c>
-      <c r="G21" t="s" s="11">
-        <v>98</v>
       </c>
     </row>
     <row r="22" ht="184.35" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" t="s" s="10">
+      <c r="B22" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="C22" t="s" s="11">
+      <c r="D22" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="D22" t="s" s="11">
-        <v>96</v>
-      </c>
       <c r="E22" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="F22" t="s" s="11">
+      <c r="G22" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="G22" t="s" s="11">
+    </row>
+    <row r="23" ht="184.35" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s" s="12">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" ht="170.35" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s" s="10">
+      <c r="C23" t="s" s="11">
         <v>104</v>
       </c>
-      <c r="C23" t="s" s="11">
+      <c r="D23" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s" s="11">
         <v>105</v>
       </c>
-      <c r="D23" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s" s="11">
+      <c r="F23" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="F23" t="s" s="11">
+      <c r="G23" t="s" s="11">
         <v>107</v>
-      </c>
-      <c r="G23" t="s" s="11">
-        <v>108</v>
       </c>
     </row>
     <row r="24" ht="170.35" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" t="s" s="10">
+      <c r="B24" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s" s="11">
         <v>109</v>
       </c>
-      <c r="C24" t="s" s="11">
+      <c r="D24" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="D24" t="s" s="11">
+      <c r="F24" t="s" s="11">
         <v>111</v>
       </c>
-      <c r="E24" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s" s="11">
+      <c r="G24" t="s" s="11">
         <v>112</v>
       </c>
-      <c r="G24" t="s" s="11">
+    </row>
+    <row r="25" ht="170.35" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" ht="184.35" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s" s="10">
+      <c r="C25" t="s" s="11">
         <v>114</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>110</v>
       </c>
       <c r="D25" t="s" s="11">
         <v>115</v>
@@ -5085,16 +5130,16 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" ht="170.35" customHeight="1">
+    <row r="26" ht="184.35" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" t="s" s="10">
+      <c r="B26" t="s" s="12">
         <v>118</v>
       </c>
       <c r="C26" t="s" s="11">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s" s="11">
         <v>119</v>
-      </c>
-      <c r="D26" t="s" s="11">
-        <v>76</v>
       </c>
       <c r="E26" t="s" s="11">
         <v>10</v>
@@ -5106,628 +5151,628 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" ht="200.35" customHeight="1">
+    <row r="27" ht="170.35" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" t="s" s="10">
+      <c r="B27" t="s" s="12">
         <v>122</v>
       </c>
       <c r="C27" t="s" s="11">
         <v>123</v>
       </c>
       <c r="D27" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="E27" t="s" s="11">
+      <c r="G27" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="F27" t="s" s="11">
+    </row>
+    <row r="28" ht="200.35" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="G27" t="s" s="11">
+      <c r="C28" t="s" s="11">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" ht="184.35" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" t="s" s="10">
+      <c r="D28" t="s" s="11">
         <v>128</v>
       </c>
-      <c r="C28" t="s" s="11">
+      <c r="E28" t="s" s="11">
         <v>129</v>
       </c>
-      <c r="D28" t="s" s="11">
+      <c r="F28" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="E28" t="s" s="11">
+      <c r="G28" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="F28" t="s" s="11">
+    </row>
+    <row r="29" ht="184.35" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="G28" t="s" s="11">
+      <c r="C29" t="s" s="11">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" ht="170.35" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" t="s" s="10">
+      <c r="D29" t="s" s="11">
         <v>134</v>
       </c>
-      <c r="C29" t="s" s="11">
+      <c r="E29" t="s" s="11">
         <v>135</v>
       </c>
-      <c r="D29" t="s" s="11">
+      <c r="F29" t="s" s="11">
         <v>136</v>
       </c>
-      <c r="E29" t="s" s="11">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s" s="11">
+      <c r="G29" t="s" s="11">
         <v>137</v>
       </c>
-      <c r="G29" t="s" s="11">
+    </row>
+    <row r="30" ht="170.35" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" t="s" s="12">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" ht="184.35" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" t="s" s="10">
+      <c r="C30" t="s" s="11">
         <v>139</v>
       </c>
-      <c r="C30" t="s" s="11">
+      <c r="D30" t="s" s="11">
         <v>140</v>
       </c>
-      <c r="D30" t="s" s="11">
+      <c r="E30" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s" s="11">
         <v>141</v>
       </c>
-      <c r="E30" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F30" t="s" s="11">
+      <c r="G30" t="s" s="11">
         <v>142</v>
       </c>
-      <c r="G30" t="s" s="11">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" ht="198.35" customHeight="1">
+    </row>
+    <row r="31" ht="184.35" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" t="s" s="12">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s" s="11">
         <v>144</v>
       </c>
-      <c r="C31" t="s" s="11">
+      <c r="D31" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="D31" t="s" s="11">
+      <c r="E31" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="E31" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F31" t="s" s="11">
+      <c r="G31" t="s" s="11">
         <v>147</v>
       </c>
-      <c r="G31" t="s" s="11">
+    </row>
+    <row r="32" ht="198.35" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" t="s" s="13">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" ht="170.35" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" t="s" s="10">
+      <c r="C32" t="s" s="11">
         <v>149</v>
       </c>
-      <c r="C32" t="s" s="11">
+      <c r="D32" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="D32" t="s" s="11">
+      <c r="E32" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="E32" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F32" t="s" s="11">
+      <c r="G32" t="s" s="11">
         <v>152</v>
-      </c>
-      <c r="G32" t="s" s="11">
-        <v>153</v>
       </c>
     </row>
     <row r="33" ht="170.35" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" t="s" s="10">
+      <c r="B33" t="s" s="12">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s" s="11">
         <v>154</v>
       </c>
-      <c r="C33" t="s" s="11">
+      <c r="D33" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="D33" t="s" s="11">
+      <c r="E33" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s" s="11">
         <v>156</v>
       </c>
-      <c r="E33" t="s" s="11">
+      <c r="G33" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="F33" t="s" s="11">
+    </row>
+    <row r="34" ht="170.35" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" t="s" s="12">
         <v>158</v>
       </c>
-      <c r="G33" t="s" s="11">
+      <c r="C34" t="s" s="11">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" ht="184.35" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s" s="10">
+      <c r="D34" t="s" s="11">
         <v>160</v>
       </c>
-      <c r="C34" t="s" s="11">
+      <c r="E34" t="s" s="11">
         <v>161</v>
       </c>
-      <c r="D34" t="s" s="11">
+      <c r="F34" t="s" s="11">
         <v>162</v>
       </c>
-      <c r="E34" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F34" t="s" s="11">
+      <c r="G34" t="s" s="11">
         <v>163</v>
       </c>
-      <c r="G34" t="s" s="11">
+    </row>
+    <row r="35" ht="184.35" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s" s="12">
         <v>164</v>
       </c>
-    </row>
-    <row r="35" ht="170.35" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" t="s" s="10">
+      <c r="C35" t="s" s="11">
         <v>165</v>
-      </c>
-      <c r="C35" t="s" s="11">
-        <v>44</v>
       </c>
       <c r="D35" t="s" s="11">
         <v>166</v>
       </c>
       <c r="E35" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s" s="11">
         <v>167</v>
       </c>
-      <c r="F35" t="s" s="11">
+      <c r="G35" t="s" s="11">
         <v>168</v>
-      </c>
-      <c r="G35" t="s" s="11">
-        <v>169</v>
       </c>
     </row>
     <row r="36" ht="170.35" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" t="s" s="10">
+      <c r="B36" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s" s="11">
         <v>170</v>
       </c>
-      <c r="C36" t="s" s="11">
+      <c r="E36" t="s" s="11">
         <v>171</v>
       </c>
-      <c r="D36" t="s" s="11">
+      <c r="F36" t="s" s="11">
         <v>172</v>
       </c>
-      <c r="E36" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F36" t="s" s="11">
+      <c r="G36" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="G36" t="s" s="11">
+    </row>
+    <row r="37" ht="170.35" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" t="s" s="12">
         <v>174</v>
       </c>
-    </row>
-    <row r="37" ht="184.35" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" t="s" s="10">
+      <c r="C37" t="s" s="11">
         <v>175</v>
       </c>
-      <c r="C37" t="s" s="11">
+      <c r="D37" t="s" s="11">
         <v>176</v>
       </c>
-      <c r="D37" t="s" s="11">
-        <v>124</v>
-      </c>
       <c r="E37" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="F37" t="s" s="11">
+      <c r="G37" t="s" s="11">
         <v>178</v>
       </c>
-      <c r="G37" t="s" s="11">
+    </row>
+    <row r="38" ht="184.35" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" t="s" s="12">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" ht="170.35" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" t="s" s="10">
+      <c r="C38" t="s" s="11">
         <v>180</v>
       </c>
-      <c r="C38" t="s" s="11">
+      <c r="D38" t="s" s="11">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s" s="11">
         <v>181</v>
       </c>
-      <c r="D38" t="s" s="11">
+      <c r="F38" t="s" s="11">
         <v>182</v>
       </c>
-      <c r="E38" t="s" s="11">
-        <v>157</v>
-      </c>
-      <c r="F38" t="s" s="11">
+      <c r="G38" t="s" s="11">
         <v>183</v>
-      </c>
-      <c r="G38" t="s" s="11">
-        <v>184</v>
       </c>
     </row>
     <row r="39" ht="170.35" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" t="s" s="10">
+      <c r="B39" t="s" s="12">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s" s="11">
         <v>185</v>
       </c>
-      <c r="C39" t="s" s="11">
+      <c r="D39" t="s" s="11">
         <v>186</v>
       </c>
-      <c r="D39" t="s" s="11">
+      <c r="E39" t="s" s="11">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s" s="11">
         <v>187</v>
       </c>
-      <c r="E39" t="s" s="11">
-        <v>131</v>
-      </c>
-      <c r="F39" t="s" s="11">
+      <c r="G39" t="s" s="11">
         <v>188</v>
-      </c>
-      <c r="G39" t="s" s="11">
-        <v>189</v>
       </c>
     </row>
     <row r="40" ht="170.35" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" t="s" s="10">
+      <c r="B40" t="s" s="12">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s" s="11">
         <v>190</v>
       </c>
-      <c r="C40" t="s" s="11">
+      <c r="D40" t="s" s="11">
         <v>191</v>
       </c>
-      <c r="D40" t="s" s="11">
+      <c r="E40" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s" s="11">
         <v>192</v>
       </c>
-      <c r="E40" t="s" s="11">
+      <c r="G40" t="s" s="11">
         <v>193</v>
-      </c>
-      <c r="F40" t="s" s="11">
-        <v>194</v>
-      </c>
-      <c r="G40" t="s" s="11">
-        <v>195</v>
       </c>
     </row>
     <row r="41" ht="170.35" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" t="s" s="10">
+      <c r="B41" t="s" s="12">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s" s="11">
+        <v>195</v>
+      </c>
+      <c r="D41" t="s" s="11">
         <v>196</v>
       </c>
-      <c r="C41" t="s" s="11">
+      <c r="E41" t="s" s="11">
         <v>197</v>
       </c>
-      <c r="D41" t="s" s="11">
+      <c r="F41" t="s" s="11">
         <v>198</v>
       </c>
-      <c r="E41" t="s" s="11">
+      <c r="G41" t="s" s="11">
         <v>199</v>
       </c>
-      <c r="F41" t="s" s="11">
+    </row>
+    <row r="42" ht="170.35" customHeight="1">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s" s="12">
         <v>200</v>
       </c>
-      <c r="G41" t="s" s="11">
+      <c r="C42" t="s" s="11">
         <v>201</v>
       </c>
-    </row>
-    <row r="42" ht="200.35" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" t="s" s="10">
+      <c r="D42" t="s" s="11">
         <v>202</v>
       </c>
-      <c r="C42" t="s" s="11">
+      <c r="E42" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="D42" t="s" s="11">
+      <c r="F42" t="s" s="11">
         <v>204</v>
       </c>
-      <c r="E42" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F42" t="s" s="11">
+      <c r="G42" t="s" s="11">
         <v>205</v>
       </c>
-      <c r="G42" t="s" s="11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" ht="214.35" customHeight="1">
+    </row>
+    <row r="43" ht="200.35" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s" s="11">
         <v>207</v>
       </c>
-      <c r="C43" t="s" s="11">
+      <c r="D43" t="s" s="11">
         <v>208</v>
       </c>
-      <c r="D43" t="s" s="11">
+      <c r="E43" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s" s="11">
         <v>209</v>
       </c>
-      <c r="E43" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F43" t="s" s="11">
+      <c r="G43" t="s" s="11">
         <v>210</v>
       </c>
-      <c r="G43" t="s" s="11">
+    </row>
+    <row r="44" ht="214.35" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s" s="13">
         <v>211</v>
       </c>
-    </row>
-    <row r="44" ht="200.35" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" t="s" s="10">
+      <c r="C44" t="s" s="11">
         <v>212</v>
       </c>
-      <c r="C44" t="s" s="11">
+      <c r="D44" t="s" s="11">
         <v>213</v>
       </c>
-      <c r="D44" t="s" s="11">
+      <c r="E44" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s" s="11">
         <v>214</v>
       </c>
-      <c r="E44" t="s" s="11">
-        <v>193</v>
-      </c>
-      <c r="F44" t="s" s="11">
+      <c r="G44" t="s" s="11">
         <v>215</v>
-      </c>
-      <c r="G44" t="s" s="11">
-        <v>216</v>
       </c>
     </row>
     <row r="45" ht="200.35" customHeight="1">
       <c r="A45" s="9"/>
-      <c r="B45" t="s" s="10">
+      <c r="B45" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s" s="11">
         <v>217</v>
       </c>
-      <c r="C45" t="s" s="11">
+      <c r="D45" t="s" s="11">
         <v>218</v>
       </c>
-      <c r="D45" t="s" s="11">
+      <c r="E45" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="F45" t="s" s="11">
         <v>219</v>
       </c>
-      <c r="E45" t="s" s="11">
+      <c r="G45" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="F45" t="s" s="11">
+    </row>
+    <row r="46" ht="200.35" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="B46" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="G45" t="s" s="11">
+      <c r="C46" t="s" s="11">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" ht="214.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" t="s" s="10">
+      <c r="D46" t="s" s="11">
         <v>223</v>
       </c>
-      <c r="C46" t="s" s="11">
+      <c r="E46" t="s" s="11">
         <v>224</v>
       </c>
-      <c r="D46" t="s" s="11">
+      <c r="F46" t="s" s="11">
         <v>225</v>
       </c>
-      <c r="E46" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s" s="11">
+      <c r="G46" t="s" s="11">
         <v>226</v>
       </c>
-      <c r="G46" t="s" s="11">
+    </row>
+    <row r="47" ht="214.35" customHeight="1">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s" s="12">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" ht="172.35" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" t="s" s="10">
+      <c r="C47" t="s" s="11">
         <v>228</v>
       </c>
-      <c r="C47" t="s" s="11">
+      <c r="D47" t="s" s="11">
         <v>229</v>
       </c>
-      <c r="D47" t="s" s="11">
+      <c r="E47" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s" s="11">
         <v>230</v>
       </c>
-      <c r="E47" t="s" s="11">
+      <c r="G47" t="s" s="11">
         <v>231</v>
       </c>
-      <c r="F47" t="s" s="11">
+    </row>
+    <row r="48" ht="172.35" customHeight="1">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="G47" t="s" s="11">
+      <c r="C48" t="s" s="11">
         <v>233</v>
       </c>
-    </row>
-    <row r="48" ht="200.35" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" t="s" s="10">
+      <c r="D48" t="s" s="11">
         <v>234</v>
       </c>
-      <c r="C48" t="s" s="11">
+      <c r="E48" t="s" s="11">
         <v>235</v>
       </c>
-      <c r="D48" t="s" s="11">
+      <c r="F48" t="s" s="11">
         <v>236</v>
       </c>
-      <c r="E48" t="s" s="11">
+      <c r="G48" t="s" s="11">
         <v>237</v>
       </c>
-      <c r="F48" t="s" s="11">
+    </row>
+    <row r="49" ht="200.35" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s" s="12">
         <v>238</v>
       </c>
-      <c r="G48" t="s" s="11">
+      <c r="C49" t="s" s="11">
         <v>239</v>
       </c>
-    </row>
-    <row r="49" ht="186.35" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" t="s" s="10">
+      <c r="D49" t="s" s="11">
         <v>240</v>
       </c>
-      <c r="C49" t="s" s="11">
+      <c r="E49" t="s" s="11">
         <v>241</v>
       </c>
-      <c r="D49" t="s" s="11">
+      <c r="F49" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="E49" t="s" s="11">
-        <v>193</v>
-      </c>
-      <c r="F49" t="s" s="11">
+      <c r="G49" t="s" s="11">
         <v>243</v>
       </c>
-      <c r="G49" t="s" s="11">
+    </row>
+    <row r="50" ht="186.35" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" t="s" s="12">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" ht="200.35" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" t="s" s="10">
+      <c r="C50" t="s" s="11">
         <v>245</v>
       </c>
-      <c r="C50" t="s" s="11">
+      <c r="D50" t="s" s="11">
         <v>246</v>
       </c>
-      <c r="D50" t="s" s="11">
+      <c r="E50" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="F50" t="s" s="11">
         <v>247</v>
       </c>
-      <c r="E50" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F50" t="s" s="11">
+      <c r="G50" t="s" s="11">
         <v>248</v>
       </c>
-      <c r="G50" t="s" s="11">
+    </row>
+    <row r="51" ht="200.35" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s" s="12">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" ht="186.35" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" t="s" s="10">
+      <c r="C51" t="s" s="11">
         <v>250</v>
       </c>
-      <c r="C51" t="s" s="11">
+      <c r="D51" t="s" s="11">
         <v>251</v>
       </c>
-      <c r="D51" t="s" s="11">
+      <c r="E51" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s" s="11">
         <v>252</v>
       </c>
-      <c r="E51" t="s" s="11">
-        <v>231</v>
-      </c>
-      <c r="F51" t="s" s="11">
+      <c r="G51" t="s" s="11">
         <v>253</v>
-      </c>
-      <c r="G51" t="s" s="11">
-        <v>254</v>
       </c>
     </row>
     <row r="52" ht="186.35" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" t="s" s="10">
+      <c r="B52" t="s" s="12">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s" s="11">
         <v>255</v>
       </c>
-      <c r="C52" t="s" s="11">
+      <c r="D52" t="s" s="11">
         <v>256</v>
       </c>
-      <c r="D52" t="s" s="11">
+      <c r="E52" t="s" s="11">
+        <v>235</v>
+      </c>
+      <c r="F52" t="s" s="11">
         <v>257</v>
       </c>
-      <c r="E52" t="s" s="11">
-        <v>193</v>
-      </c>
-      <c r="F52" t="s" s="11">
+      <c r="G52" t="s" s="11">
         <v>258</v>
-      </c>
-      <c r="G52" t="s" s="11">
-        <v>259</v>
       </c>
     </row>
     <row r="53" ht="186.35" customHeight="1">
       <c r="A53" s="9"/>
-      <c r="B53" t="s" s="10">
+      <c r="B53" t="s" s="12">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s" s="11">
         <v>260</v>
       </c>
-      <c r="C53" t="s" s="11">
+      <c r="D53" t="s" s="11">
         <v>261</v>
       </c>
-      <c r="D53" t="s" s="11">
+      <c r="E53" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s" s="11">
         <v>262</v>
       </c>
-      <c r="E53" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="F53" t="s" s="11">
+      <c r="G53" t="s" s="11">
         <v>263</v>
       </c>
-      <c r="G53" t="s" s="11">
+    </row>
+    <row r="54" ht="186.35" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" t="s" s="12">
         <v>264</v>
       </c>
-    </row>
-    <row r="54" ht="200.35" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" t="s" s="10">
+      <c r="C54" t="s" s="11">
         <v>265</v>
       </c>
-      <c r="C54" t="s" s="11">
+      <c r="D54" t="s" s="11">
         <v>266</v>
       </c>
-      <c r="D54" t="s" s="11">
+      <c r="E54" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s" s="11">
         <v>267</v>
       </c>
-      <c r="E54" t="s" s="11">
-        <v>157</v>
-      </c>
-      <c r="F54" t="s" s="11">
+      <c r="G54" t="s" s="11">
         <v>268</v>
       </c>
-      <c r="G54" t="s" s="11">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" ht="186.35" customHeight="1">
+    </row>
+    <row r="55" ht="200.35" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s" s="11">
         <v>270</v>
       </c>
-      <c r="C55" t="s" s="11">
+      <c r="D55" t="s" s="11">
         <v>271</v>
       </c>
-      <c r="D55" t="s" s="11">
+      <c r="E55" t="s" s="11">
+        <v>161</v>
+      </c>
+      <c r="F55" t="s" s="11">
         <v>272</v>
       </c>
-      <c r="E55" t="s" s="11">
-        <v>193</v>
-      </c>
-      <c r="F55" t="s" s="11">
+      <c r="G55" t="s" s="11">
         <v>273</v>
       </c>
-      <c r="G55" t="s" s="11">
+    </row>
+    <row r="56" ht="186.35" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s" s="13">
         <v>274</v>
       </c>
-    </row>
-    <row r="56" ht="228.35" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" t="s" s="10">
+      <c r="C56" t="s" s="11">
         <v>275</v>
       </c>
-      <c r="C56" t="s" s="11">
+      <c r="D56" t="s" s="11">
         <v>276</v>
       </c>
-      <c r="D56" t="s" s="11">
-        <v>242</v>
-      </c>
       <c r="E56" t="s" s="11">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s" s="11">
         <v>277</v>
@@ -5736,19 +5781,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" ht="198.35" customHeight="1">
+    <row r="57" ht="228.35" customHeight="1">
       <c r="A57" s="9"/>
-      <c r="B57" t="s" s="10">
+      <c r="B57" t="s" s="12">
         <v>279</v>
       </c>
       <c r="C57" t="s" s="11">
         <v>280</v>
       </c>
       <c r="D57" t="s" s="11">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s" s="11">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s" s="11">
         <v>281</v>
@@ -5757,145 +5802,145 @@
         <v>282</v>
       </c>
     </row>
-    <row r="58" ht="170.35" customHeight="1">
+    <row r="58" ht="198.35" customHeight="1">
       <c r="A58" s="9"/>
-      <c r="B58" t="s" s="10">
+      <c r="B58" t="s" s="12">
         <v>283</v>
       </c>
       <c r="C58" t="s" s="11">
         <v>284</v>
       </c>
       <c r="D58" t="s" s="11">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F58" t="s" s="11">
+        <v>285</v>
+      </c>
+      <c r="G58" t="s" s="11">
         <v>286</v>
       </c>
-      <c r="G58" t="s" s="11">
+    </row>
+    <row r="59" ht="170.35" customHeight="1">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s" s="12">
         <v>287</v>
       </c>
-    </row>
-    <row r="59" ht="198.35" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" t="s" s="10">
+      <c r="C59" t="s" s="11">
         <v>288</v>
       </c>
-      <c r="C59" t="s" s="11">
+      <c r="D59" t="s" s="11">
         <v>289</v>
-      </c>
-      <c r="D59" t="s" s="11">
-        <v>290</v>
       </c>
       <c r="E59" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F59" t="s" s="11">
+        <v>290</v>
+      </c>
+      <c r="G59" t="s" s="11">
         <v>291</v>
       </c>
-      <c r="G59" t="s" s="11">
+    </row>
+    <row r="60" ht="198.35" customHeight="1">
+      <c r="A60" s="9"/>
+      <c r="B60" t="s" s="12">
         <v>292</v>
       </c>
-    </row>
-    <row r="60" ht="170.35" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" t="s" s="10">
+      <c r="C60" t="s" s="11">
         <v>293</v>
       </c>
-      <c r="C60" t="s" s="11">
+      <c r="D60" t="s" s="11">
         <v>294</v>
       </c>
-      <c r="D60" t="s" s="11">
+      <c r="E60" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s" s="11">
         <v>295</v>
       </c>
-      <c r="E60" t="s" s="11">
+      <c r="G60" t="s" s="11">
         <v>296</v>
-      </c>
-      <c r="F60" t="s" s="11">
-        <v>297</v>
-      </c>
-      <c r="G60" t="s" s="11">
-        <v>298</v>
       </c>
     </row>
     <row r="61" ht="170.35" customHeight="1">
       <c r="A61" s="9"/>
-      <c r="B61" t="s" s="10">
+      <c r="B61" t="s" s="12">
+        <v>297</v>
+      </c>
+      <c r="C61" t="s" s="11">
+        <v>298</v>
+      </c>
+      <c r="D61" t="s" s="11">
         <v>299</v>
       </c>
-      <c r="C61" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="D61" t="s" s="11">
-        <v>295</v>
-      </c>
       <c r="E61" t="s" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F61" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G61" t="s" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" ht="170.35" customHeight="1">
       <c r="A62" s="9"/>
-      <c r="B62" t="s" s="10">
-        <v>302</v>
+      <c r="B62" t="s" s="12">
+        <v>303</v>
       </c>
       <c r="C62" t="s" s="11">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s" s="11">
+        <v>299</v>
+      </c>
+      <c r="E62" t="s" s="11">
+        <v>300</v>
+      </c>
+      <c r="F62" t="s" s="11">
         <v>304</v>
       </c>
-      <c r="E62" t="s" s="11">
+      <c r="G62" t="s" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" ht="170.35" customHeight="1">
+      <c r="A63" s="9"/>
+      <c r="B63" t="s" s="12">
+        <v>306</v>
+      </c>
+      <c r="C63" t="s" s="11">
+        <v>307</v>
+      </c>
+      <c r="D63" t="s" s="11">
+        <v>308</v>
+      </c>
+      <c r="E63" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F62" t="s" s="11">
-        <v>305</v>
-      </c>
-      <c r="G62" t="s" s="11">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" ht="142.35" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" t="s" s="10">
-        <v>307</v>
-      </c>
-      <c r="C63" t="s" s="11">
-        <v>308</v>
-      </c>
-      <c r="D63" t="s" s="11">
+      <c r="F63" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="E63" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s" s="11">
+      <c r="G63" t="s" s="11">
         <v>310</v>
       </c>
-      <c r="G63" t="s" s="11">
+    </row>
+    <row r="64" ht="142.35" customHeight="1">
+      <c r="A64" s="9"/>
+      <c r="B64" t="s" s="12">
         <v>311</v>
       </c>
-    </row>
-    <row r="64" ht="184.35" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" t="s" s="10">
+      <c r="C64" t="s" s="11">
         <v>312</v>
       </c>
-      <c r="C64" t="s" s="11">
+      <c r="D64" t="s" s="11">
         <v>313</v>
       </c>
-      <c r="D64" t="s" s="11">
-        <v>96</v>
-      </c>
       <c r="E64" t="s" s="11">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s" s="11">
         <v>314</v>
@@ -5906,164 +5951,164 @@
     </row>
     <row r="65" ht="184.35" customHeight="1">
       <c r="A65" s="9"/>
-      <c r="B65" t="s" s="10">
+      <c r="B65" t="s" s="12">
         <v>316</v>
       </c>
       <c r="C65" t="s" s="11">
         <v>317</v>
       </c>
       <c r="D65" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="F65" t="s" s="11">
         <v>318</v>
       </c>
-      <c r="E65" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s" s="11">
+      <c r="G65" t="s" s="11">
         <v>319</v>
       </c>
-      <c r="G65" t="s" s="11">
+    </row>
+    <row r="66" ht="184.35" customHeight="1">
+      <c r="A66" s="9"/>
+      <c r="B66" t="s" s="12">
         <v>320</v>
       </c>
-    </row>
-    <row r="66" ht="156.35" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" t="s" s="10">
+      <c r="C66" t="s" s="11">
         <v>321</v>
       </c>
-      <c r="C66" t="s" s="11">
+      <c r="D66" t="s" s="11">
         <v>322</v>
-      </c>
-      <c r="D66" t="s" s="11">
-        <v>323</v>
       </c>
       <c r="E66" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F66" t="s" s="11">
+        <v>323</v>
+      </c>
+      <c r="G66" t="s" s="11">
         <v>324</v>
       </c>
-      <c r="G66" t="s" s="11">
+    </row>
+    <row r="67" ht="156.35" customHeight="1">
+      <c r="A67" s="9"/>
+      <c r="B67" t="s" s="12">
         <v>325</v>
       </c>
-    </row>
-    <row r="67" ht="170.35" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" t="s" s="10">
+      <c r="C67" t="s" s="11">
         <v>326</v>
       </c>
-      <c r="C67" t="s" s="11">
+      <c r="D67" t="s" s="11">
         <v>327</v>
-      </c>
-      <c r="D67" t="s" s="11">
-        <v>328</v>
       </c>
       <c r="E67" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F67" t="s" s="11">
+        <v>328</v>
+      </c>
+      <c r="G67" t="s" s="11">
         <v>329</v>
       </c>
-      <c r="G67" t="s" s="11">
+    </row>
+    <row r="68" ht="170.35" customHeight="1">
+      <c r="A68" s="9"/>
+      <c r="B68" t="s" s="12">
         <v>330</v>
       </c>
-    </row>
-    <row r="68" ht="198.35" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" t="s" s="10">
+      <c r="C68" t="s" s="11">
         <v>331</v>
       </c>
-      <c r="C68" t="s" s="11">
+      <c r="D68" t="s" s="11">
         <v>332</v>
       </c>
-      <c r="D68" t="s" s="11">
+      <c r="E68" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s" s="11">
         <v>333</v>
       </c>
-      <c r="E68" t="s" s="11">
+      <c r="G68" t="s" s="11">
         <v>334</v>
       </c>
-      <c r="F68" t="s" s="11">
+    </row>
+    <row r="69" ht="198.35" customHeight="1">
+      <c r="A69" s="9"/>
+      <c r="B69" t="s" s="12">
         <v>335</v>
       </c>
-      <c r="G68" t="s" s="11">
+      <c r="C69" t="s" s="11">
         <v>336</v>
-      </c>
-    </row>
-    <row r="69" ht="156.35" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="C69" t="s" s="11">
-        <v>28</v>
       </c>
       <c r="D69" t="s" s="11">
         <v>337</v>
       </c>
       <c r="E69" t="s" s="11">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="F69" t="s" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G69" t="s" s="11">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" ht="170.35" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" ht="156.35" customHeight="1">
       <c r="A70" s="9"/>
-      <c r="B70" t="s" s="10">
-        <v>38</v>
+      <c r="B70" t="s" s="12">
+        <v>31</v>
       </c>
       <c r="C70" t="s" s="11">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s" s="11">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E70" t="s" s="11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s" s="11">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G70" t="s" s="11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" ht="170.35" customHeight="1">
+      <c r="A71" s="9"/>
+      <c r="B71" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s" s="11">
         <v>341</v>
-      </c>
-    </row>
-    <row r="71" ht="156.35" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" t="s" s="10">
-        <v>342</v>
-      </c>
-      <c r="C71" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="D71" t="s" s="11">
-        <v>304</v>
       </c>
       <c r="E71" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F71" t="s" s="11">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G71" t="s" s="11">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" ht="184.35" customHeight="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" ht="156.35" customHeight="1">
       <c r="A72" s="9"/>
-      <c r="B72" t="s" s="10">
-        <v>345</v>
+      <c r="B72" t="s" s="12">
+        <v>346</v>
       </c>
       <c r="C72" t="s" s="11">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s" s="11">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="E72" t="s" s="11">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s" s="11">
         <v>347</v>
@@ -6074,17 +6119,17 @@
     </row>
     <row r="73" ht="184.35" customHeight="1">
       <c r="A73" s="9"/>
-      <c r="B73" t="s" s="10">
+      <c r="B73" t="s" s="12">
         <v>349</v>
       </c>
       <c r="C73" t="s" s="11">
         <v>350</v>
       </c>
       <c r="D73" t="s" s="11">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s" s="11">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="F73" t="s" s="11">
         <v>351</v>
@@ -6093,19 +6138,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" ht="170.35" customHeight="1">
+    <row r="74" ht="184.35" customHeight="1">
       <c r="A74" s="9"/>
-      <c r="B74" t="s" s="10">
+      <c r="B74" t="s" s="12">
         <v>353</v>
       </c>
       <c r="C74" t="s" s="11">
         <v>354</v>
       </c>
       <c r="D74" t="s" s="11">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s" s="11">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F74" t="s" s="11">
         <v>355</v>
@@ -6114,145 +6159,145 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" ht="198.35" customHeight="1">
+    <row r="75" ht="170.35" customHeight="1">
       <c r="A75" s="9"/>
-      <c r="B75" t="s" s="10">
+      <c r="B75" t="s" s="12">
         <v>357</v>
       </c>
       <c r="C75" t="s" s="11">
         <v>358</v>
       </c>
       <c r="D75" t="s" s="11">
+        <v>289</v>
+      </c>
+      <c r="E75" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s" s="11">
         <v>359</v>
       </c>
-      <c r="E75" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="F75" t="s" s="11">
+      <c r="G75" t="s" s="11">
         <v>360</v>
       </c>
-      <c r="G75" t="s" s="11">
+    </row>
+    <row r="76" ht="198.35" customHeight="1">
+      <c r="A76" s="9"/>
+      <c r="B76" t="s" s="12">
         <v>361</v>
       </c>
-    </row>
-    <row r="76" ht="170.35" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" t="s" s="10">
+      <c r="C76" t="s" s="11">
         <v>362</v>
       </c>
-      <c r="C76" t="s" s="11">
+      <c r="D76" t="s" s="11">
         <v>363</v>
       </c>
-      <c r="D76" t="s" s="11">
+      <c r="E76" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="F76" t="s" s="11">
         <v>364</v>
       </c>
-      <c r="E76" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s" s="11">
+      <c r="G76" t="s" s="11">
         <v>365</v>
       </c>
-      <c r="G76" t="s" s="11">
+    </row>
+    <row r="77" ht="170.35" customHeight="1">
+      <c r="A77" s="9"/>
+      <c r="B77" t="s" s="12">
         <v>366</v>
       </c>
-    </row>
-    <row r="77" ht="184.35" customHeight="1">
-      <c r="A77" s="9"/>
-      <c r="B77" t="s" s="10">
+      <c r="C77" t="s" s="11">
         <v>367</v>
       </c>
-      <c r="C77" t="s" s="11">
+      <c r="D77" t="s" s="11">
         <v>368</v>
-      </c>
-      <c r="D77" t="s" s="11">
-        <v>369</v>
       </c>
       <c r="E77" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F77" t="s" s="11">
+        <v>369</v>
+      </c>
+      <c r="G77" t="s" s="11">
         <v>370</v>
-      </c>
-      <c r="G77" t="s" s="11">
-        <v>371</v>
       </c>
     </row>
     <row r="78" ht="184.35" customHeight="1">
       <c r="A78" s="9"/>
-      <c r="B78" t="s" s="10">
+      <c r="B78" t="s" s="12">
+        <v>371</v>
+      </c>
+      <c r="C78" t="s" s="11">
         <v>372</v>
       </c>
-      <c r="C78" t="s" s="11">
+      <c r="D78" t="s" s="11">
         <v>373</v>
-      </c>
-      <c r="D78" t="s" s="11">
-        <v>374</v>
       </c>
       <c r="E78" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F78" t="s" s="11">
+        <v>374</v>
+      </c>
+      <c r="G78" t="s" s="11">
         <v>375</v>
       </c>
-      <c r="G78" t="s" s="11">
+    </row>
+    <row r="79" ht="184.35" customHeight="1">
+      <c r="A79" s="9"/>
+      <c r="B79" t="s" s="12">
         <v>376</v>
       </c>
-    </row>
-    <row r="79" ht="170.35" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" t="s" s="10">
+      <c r="C79" t="s" s="11">
         <v>377</v>
       </c>
-      <c r="C79" t="s" s="11">
+      <c r="D79" t="s" s="11">
         <v>378</v>
-      </c>
-      <c r="D79" t="s" s="11">
-        <v>379</v>
       </c>
       <c r="E79" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F79" t="s" s="11">
+        <v>379</v>
+      </c>
+      <c r="G79" t="s" s="11">
         <v>380</v>
-      </c>
-      <c r="G79" t="s" s="11">
-        <v>381</v>
       </c>
     </row>
     <row r="80" ht="170.35" customHeight="1">
       <c r="A80" s="9"/>
-      <c r="B80" t="s" s="10">
+      <c r="B80" t="s" s="12">
+        <v>381</v>
+      </c>
+      <c r="C80" t="s" s="11">
         <v>382</v>
       </c>
-      <c r="C80" t="s" s="11">
+      <c r="D80" t="s" s="11">
         <v>383</v>
       </c>
-      <c r="D80" t="s" s="11">
+      <c r="E80" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s" s="11">
         <v>384</v>
       </c>
-      <c r="E80" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="F80" t="s" s="11">
+      <c r="G80" t="s" s="11">
         <v>385</v>
-      </c>
-      <c r="G80" t="s" s="11">
-        <v>386</v>
       </c>
     </row>
     <row r="81" ht="170.35" customHeight="1">
       <c r="A81" s="9"/>
-      <c r="B81" t="s" s="10">
+      <c r="B81" t="s" s="12">
+        <v>386</v>
+      </c>
+      <c r="C81" t="s" s="11">
         <v>387</v>
       </c>
-      <c r="C81" t="s" s="11">
+      <c r="D81" t="s" s="11">
         <v>388</v>
       </c>
-      <c r="D81" t="s" s="11">
-        <v>96</v>
-      </c>
       <c r="E81" t="s" s="11">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s" s="11">
         <v>389</v>
@@ -6263,122 +6308,122 @@
     </row>
     <row r="82" ht="170.35" customHeight="1">
       <c r="A82" s="9"/>
-      <c r="B82" t="s" s="10">
+      <c r="B82" t="s" s="12">
         <v>391</v>
       </c>
       <c r="C82" t="s" s="11">
         <v>392</v>
       </c>
       <c r="D82" t="s" s="11">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="E82" t="s" s="11">
         <v>10</v>
       </c>
       <c r="F82" t="s" s="11">
+        <v>393</v>
+      </c>
+      <c r="G82" t="s" s="11">
         <v>394</v>
       </c>
-      <c r="G82" t="s" s="11">
+    </row>
+    <row r="83" ht="170.35" customHeight="1">
+      <c r="A83" s="9"/>
+      <c r="B83" t="s" s="12">
         <v>395</v>
       </c>
-    </row>
-    <row r="83" ht="184.35" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" t="s" s="10">
+      <c r="C83" t="s" s="11">
         <v>396</v>
       </c>
-      <c r="C83" t="s" s="11">
+      <c r="D83" t="s" s="11">
         <v>397</v>
       </c>
-      <c r="D83" t="s" s="11">
+      <c r="E83" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s" s="11">
         <v>398</v>
       </c>
-      <c r="E83" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="F83" t="s" s="11">
+      <c r="G83" t="s" s="11">
         <v>399</v>
-      </c>
-      <c r="G83" t="s" s="11">
-        <v>400</v>
       </c>
     </row>
     <row r="84" ht="184.35" customHeight="1">
       <c r="A84" s="9"/>
-      <c r="B84" t="s" s="10">
+      <c r="B84" t="s" s="12">
+        <v>400</v>
+      </c>
+      <c r="C84" t="s" s="11">
         <v>401</v>
       </c>
-      <c r="C84" t="s" s="11">
+      <c r="D84" t="s" s="11">
         <v>402</v>
       </c>
-      <c r="D84" t="s" s="11">
+      <c r="E84" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="F84" t="s" s="11">
         <v>403</v>
       </c>
-      <c r="E84" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s" s="11">
+      <c r="G84" t="s" s="11">
         <v>404</v>
-      </c>
-      <c r="G84" t="s" s="11">
-        <v>405</v>
       </c>
     </row>
     <row r="85" ht="184.35" customHeight="1">
       <c r="A85" s="9"/>
-      <c r="B85" t="s" s="10">
+      <c r="B85" t="s" s="12">
+        <v>405</v>
+      </c>
+      <c r="C85" t="s" s="11">
         <v>406</v>
       </c>
-      <c r="C85" t="s" s="11">
+      <c r="D85" t="s" s="11">
         <v>407</v>
       </c>
-      <c r="D85" t="s" s="11">
+      <c r="E85" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s" s="11">
         <v>408</v>
       </c>
-      <c r="E85" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="F85" t="s" s="11">
+      <c r="G85" t="s" s="11">
         <v>409</v>
-      </c>
-      <c r="G85" t="s" s="11">
-        <v>410</v>
       </c>
     </row>
     <row r="86" ht="184.35" customHeight="1">
       <c r="A86" s="9"/>
-      <c r="B86" t="s" s="10">
+      <c r="B86" t="s" s="12">
+        <v>410</v>
+      </c>
+      <c r="C86" t="s" s="11">
         <v>411</v>
       </c>
-      <c r="C86" t="s" s="11">
+      <c r="D86" t="s" s="11">
         <v>412</v>
       </c>
-      <c r="D86" t="s" s="11">
+      <c r="E86" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s" s="11">
         <v>413</v>
       </c>
-      <c r="E86" t="s" s="11">
+      <c r="G86" t="s" s="11">
         <v>414</v>
       </c>
-      <c r="F86" t="s" s="11">
+    </row>
+    <row r="87" ht="184.35" customHeight="1">
+      <c r="A87" s="9"/>
+      <c r="B87" t="s" s="12">
         <v>415</v>
       </c>
-      <c r="G86" t="s" s="11">
+      <c r="C87" t="s" s="11">
         <v>416</v>
       </c>
-    </row>
-    <row r="87" ht="170.35" customHeight="1">
-      <c r="A87" s="9"/>
-      <c r="B87" t="s" s="10">
+      <c r="D87" t="s" s="11">
         <v>417</v>
       </c>
-      <c r="C87" t="s" s="11">
+      <c r="E87" t="s" s="11">
         <v>418</v>
-      </c>
-      <c r="D87" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="E87" t="s" s="11">
-        <v>334</v>
       </c>
       <c r="F87" t="s" s="11">
         <v>419</v>
@@ -6387,19 +6432,19 @@
         <v>420</v>
       </c>
     </row>
-    <row r="88" ht="212.35" customHeight="1">
+    <row r="88" ht="170.35" customHeight="1">
       <c r="A88" s="9"/>
-      <c r="B88" t="s" s="10">
+      <c r="B88" t="s" s="12">
         <v>421</v>
       </c>
       <c r="C88" t="s" s="11">
         <v>422</v>
       </c>
       <c r="D88" t="s" s="11">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s" s="11">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F88" t="s" s="11">
         <v>423</v>
@@ -6408,25 +6453,46 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" ht="184.35" customHeight="1">
+    <row r="89" ht="212.35" customHeight="1">
       <c r="A89" s="9"/>
-      <c r="B89" t="s" s="10">
+      <c r="B89" t="s" s="12">
         <v>425</v>
       </c>
       <c r="C89" t="s" s="11">
         <v>426</v>
       </c>
       <c r="D89" t="s" s="11">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s" s="11">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s" s="11">
         <v>427</v>
       </c>
       <c r="G89" t="s" s="11">
         <v>428</v>
+      </c>
+    </row>
+    <row r="90" ht="184.35" customHeight="1">
+      <c r="A90" s="9"/>
+      <c r="B90" t="s" s="12">
+        <v>429</v>
+      </c>
+      <c r="C90" t="s" s="11">
+        <v>430</v>
+      </c>
+      <c r="D90" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="E90" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s" s="11">
+        <v>431</v>
+      </c>
+      <c r="G90" t="s" s="11">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/biblioteca.xlsx
+++ b/biblioteca.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>Table 1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Editora</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>Número de chamada</t>
   </si>
   <si>
     <t>Categoria</t>
@@ -41,7 +47,13 @@
     <t>Maurício Cândido Taveira</t>
   </si>
   <si>
-    <t>Dissertação de Mestrado, 2001</t>
+    <t>USP  Dissertação de Mestrado</t>
+  </si>
+  <si>
+    <t>791.436</t>
+  </si>
+  <si>
+    <t>T232e</t>
   </si>
   <si>
     <t>Cinema</t>
@@ -88,6 +100,12 @@
     <t>Papirus</t>
   </si>
   <si>
+    <t>791.4301</t>
+  </si>
+  <si>
+    <t>A925i</t>
+  </si>
+  <si>
     <t>Analisa a imagem sob as perspectivas do olho, do espírito e do dispositivo, discutindo como percebemos o visual.</t>
   </si>
   <si>
@@ -730,6 +748,12 @@
       </rPr>
       <t>+1</t>
     </r>
+  </si>
+  <si>
+    <t>791.4309</t>
+  </si>
+  <si>
+    <t>C836h</t>
   </si>
   <si>
     <t>Relato global e inovador que revisita a história do cinema, focando na evolução da técnica e da estética através das décadas.</t>
@@ -3287,7 +3311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3324,6 +3348,11 @@
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <sz val="13"/>
@@ -3519,7 +3548,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3531,6 +3560,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3554,6 +3586,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4619,14 +4654,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -4636,1868 +4671,2064 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="44.55" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" t="s" s="9">
         <v>6</v>
       </c>
+      <c r="H3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="170.35" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="11">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="C4" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="D4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="E4" t="s" s="13">
         <v>12</v>
       </c>
+      <c r="F4" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" ht="170.35" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="11">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="H5" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" ht="142.35" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s" s="11">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="11">
-        <v>19</v>
+      <c r="H6" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s" s="12">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="156.35" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s" s="11">
-        <v>24</v>
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s" s="12">
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="156.35" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s" s="11">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="156.35" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="142.35" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="156.35" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="128.35" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="170.35" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="184.35" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="184.35" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="156.35" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="12">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="184.35" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" ht="184.35" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>86</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="12">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="198.35" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="156.35" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" ht="170.35" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="14">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" ht="184.35" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" ht="184.35" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" t="s" s="14">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="I23" t="s" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" ht="170.35" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="F8" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="156.35" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="142.35" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s" s="12">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" ht="170.35" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="14">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" ht="184.35" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="14">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" ht="170.35" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>86</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" ht="200.35" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="14">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H28" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="I28" t="s" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" ht="184.35" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" t="s" s="14">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="H29" t="s" s="12">
+        <v>142</v>
+      </c>
+      <c r="I29" t="s" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" ht="170.35" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" t="s" s="14">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>146</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="H30" t="s" s="12">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" ht="184.35" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" t="s" s="14">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H31" t="s" s="12">
+        <v>152</v>
+      </c>
+      <c r="I31" t="s" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" ht="198.35" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" t="s" s="15">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>156</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s" s="12">
+        <v>157</v>
+      </c>
+      <c r="I32" t="s" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" ht="170.35" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s" s="13">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s" s="13">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H33" t="s" s="12">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" ht="170.35" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" t="s" s="14">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s" s="12">
+        <v>168</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s" s="12">
+        <v>170</v>
+      </c>
+      <c r="I34" t="s" s="12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" ht="184.35" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" t="s" s="14">
+        <v>172</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s" s="12">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s" s="12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" ht="170.35" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" t="s" s="14">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>178</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" t="s" s="12">
+        <v>179</v>
+      </c>
+      <c r="H36" t="s" s="12">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s" s="12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" ht="170.35" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" t="s" s="14">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s" s="12">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s" s="12">
+        <v>184</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H37" t="s" s="12">
+        <v>185</v>
+      </c>
+      <c r="I37" t="s" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" ht="184.35" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" t="s" s="14">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s" s="12">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" t="s" s="12">
+        <v>189</v>
+      </c>
+      <c r="H38" t="s" s="12">
+        <v>190</v>
+      </c>
+      <c r="I38" t="s" s="12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" ht="170.35" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" t="s" s="14">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>194</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="H39" t="s" s="12">
+        <v>195</v>
+      </c>
+      <c r="I39" t="s" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" ht="170.35" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" t="s" s="14">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s" s="12">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s" s="12">
+        <v>199</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s" s="12">
+        <v>200</v>
+      </c>
+      <c r="I40" t="s" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" ht="170.35" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" t="s" s="14">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s" s="12">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s" s="12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" ht="170.35" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" t="s" s="14">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s" s="12">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s" s="12">
+        <v>210</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="I42" t="s" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" ht="200.35" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s" s="12">
+        <v>215</v>
+      </c>
+      <c r="D43" t="s" s="12">
+        <v>216</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H43" t="s" s="12">
+        <v>217</v>
+      </c>
+      <c r="I43" t="s" s="12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" ht="214.35" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" t="s" s="15">
+        <v>219</v>
+      </c>
+      <c r="C44" t="s" s="12">
+        <v>220</v>
+      </c>
+      <c r="D44" t="s" s="12">
+        <v>221</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H44" t="s" s="12">
+        <v>222</v>
+      </c>
+      <c r="I44" t="s" s="12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" ht="200.35" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" t="s" s="14">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s" s="12">
+        <v>225</v>
+      </c>
+      <c r="D45" t="s" s="12">
+        <v>226</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s" s="12">
+        <v>227</v>
+      </c>
+      <c r="I45" t="s" s="12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" ht="200.35" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" t="s" s="14">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="D46" t="s" s="12">
+        <v>231</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" t="s" s="12">
+        <v>232</v>
+      </c>
+      <c r="H46" t="s" s="12">
+        <v>233</v>
+      </c>
+      <c r="I46" t="s" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" ht="214.35" customHeight="1">
+      <c r="A47" s="10"/>
+      <c r="B47" t="s" s="14">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s" s="12">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s" s="12">
+        <v>237</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H47" t="s" s="12">
+        <v>238</v>
+      </c>
+      <c r="I47" t="s" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" ht="172.35" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" t="s" s="14">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s" s="12">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s" s="12">
+        <v>242</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="H48" t="s" s="12">
+        <v>244</v>
+      </c>
+      <c r="I48" t="s" s="12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" ht="200.35" customHeight="1">
+      <c r="A49" s="10"/>
+      <c r="B49" t="s" s="14">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s" s="12">
+        <v>247</v>
+      </c>
+      <c r="D49" t="s" s="12">
+        <v>248</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" t="s" s="12">
+        <v>249</v>
+      </c>
+      <c r="H49" t="s" s="12">
+        <v>250</v>
+      </c>
+      <c r="I49" t="s" s="12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" ht="186.35" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" t="s" s="14">
+        <v>252</v>
+      </c>
+      <c r="C50" t="s" s="12">
+        <v>253</v>
+      </c>
+      <c r="D50" t="s" s="12">
+        <v>254</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s" s="12">
+        <v>255</v>
+      </c>
+      <c r="I50" t="s" s="12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" ht="200.35" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" t="s" s="14">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s" s="12">
+        <v>258</v>
+      </c>
+      <c r="D51" t="s" s="12">
+        <v>259</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H51" t="s" s="12">
+        <v>260</v>
+      </c>
+      <c r="I51" t="s" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" ht="186.35" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" t="s" s="14">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="D52" t="s" s="12">
+        <v>264</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="H52" t="s" s="12">
+        <v>265</v>
+      </c>
+      <c r="I52" t="s" s="12">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" ht="186.35" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="C53" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s" s="12">
+        <v>270</v>
+      </c>
+      <c r="I53" t="s" s="12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" ht="186.35" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" t="s" s="14">
+        <v>272</v>
+      </c>
+      <c r="C54" t="s" s="12">
+        <v>273</v>
+      </c>
+      <c r="D54" t="s" s="12">
+        <v>274</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H54" t="s" s="12">
+        <v>275</v>
+      </c>
+      <c r="I54" t="s" s="12">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" ht="200.35" customHeight="1">
+      <c r="A55" s="10"/>
+      <c r="B55" t="s" s="14">
+        <v>277</v>
+      </c>
+      <c r="C55" t="s" s="12">
+        <v>278</v>
+      </c>
+      <c r="D55" t="s" s="12">
+        <v>279</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="H55" t="s" s="12">
+        <v>280</v>
+      </c>
+      <c r="I55" t="s" s="12">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" ht="186.35" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" t="s" s="15">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s" s="12">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s" s="12">
+        <v>284</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s" s="12">
+        <v>285</v>
+      </c>
+      <c r="I56" t="s" s="12">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" ht="228.35" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" t="s" s="14">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s" s="12">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s" s="12">
+        <v>254</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="H57" t="s" s="12">
+        <v>289</v>
+      </c>
+      <c r="I57" t="s" s="12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" ht="198.35" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" t="s" s="14">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s" s="12">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="12">
+        <v>293</v>
+      </c>
+      <c r="I58" t="s" s="12">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" ht="170.35" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" t="s" s="14">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s" s="12">
+        <v>296</v>
+      </c>
+      <c r="D59" t="s" s="12">
+        <v>297</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="12">
+        <v>298</v>
+      </c>
+      <c r="I59" t="s" s="12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" ht="198.35" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" t="s" s="14">
+        <v>300</v>
+      </c>
+      <c r="C60" t="s" s="12">
+        <v>301</v>
+      </c>
+      <c r="D60" t="s" s="12">
+        <v>302</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="12">
+        <v>303</v>
+      </c>
+      <c r="I60" t="s" s="12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" ht="170.35" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" t="s" s="14">
+        <v>305</v>
+      </c>
+      <c r="C61" t="s" s="12">
+        <v>306</v>
+      </c>
+      <c r="D61" t="s" s="12">
+        <v>307</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="H61" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="I61" t="s" s="12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" ht="170.35" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" t="s" s="14">
+        <v>311</v>
+      </c>
+      <c r="C62" t="s" s="12">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s" s="12">
+        <v>307</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="H62" t="s" s="12">
+        <v>312</v>
+      </c>
+      <c r="I62" t="s" s="12">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" ht="170.35" customHeight="1">
+      <c r="A63" s="10"/>
+      <c r="B63" t="s" s="14">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s" s="12">
+        <v>315</v>
+      </c>
+      <c r="D63" t="s" s="12">
+        <v>316</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="12">
+        <v>317</v>
+      </c>
+      <c r="I63" t="s" s="12">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" ht="142.35" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" t="s" s="14">
+        <v>319</v>
+      </c>
+      <c r="C64" t="s" s="12">
+        <v>320</v>
+      </c>
+      <c r="D64" t="s" s="12">
+        <v>321</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="12">
+        <v>322</v>
+      </c>
+      <c r="I64" t="s" s="12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" ht="184.35" customHeight="1">
+      <c r="A65" s="10"/>
+      <c r="B65" t="s" s="14">
+        <v>324</v>
+      </c>
+      <c r="C65" t="s" s="12">
+        <v>325</v>
+      </c>
+      <c r="D65" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="H65" t="s" s="12">
+        <v>326</v>
+      </c>
+      <c r="I65" t="s" s="12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" ht="184.35" customHeight="1">
+      <c r="A66" s="10"/>
+      <c r="B66" t="s" s="14">
+        <v>328</v>
+      </c>
+      <c r="C66" t="s" s="12">
+        <v>329</v>
+      </c>
+      <c r="D66" t="s" s="12">
+        <v>330</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s" s="12">
+        <v>331</v>
+      </c>
+      <c r="I66" t="s" s="12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" ht="156.35" customHeight="1">
+      <c r="A67" s="10"/>
+      <c r="B67" t="s" s="14">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s" s="12">
+        <v>334</v>
+      </c>
+      <c r="D67" t="s" s="12">
+        <v>335</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="12">
+        <v>336</v>
+      </c>
+      <c r="I67" t="s" s="12">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" ht="170.35" customHeight="1">
+      <c r="A68" s="10"/>
+      <c r="B68" t="s" s="14">
+        <v>338</v>
+      </c>
+      <c r="C68" t="s" s="12">
+        <v>339</v>
+      </c>
+      <c r="D68" t="s" s="12">
+        <v>340</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="12">
+        <v>341</v>
+      </c>
+      <c r="I68" t="s" s="12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" ht="198.35" customHeight="1">
+      <c r="A69" s="10"/>
+      <c r="B69" t="s" s="14">
+        <v>343</v>
+      </c>
+      <c r="C69" t="s" s="12">
+        <v>344</v>
+      </c>
+      <c r="D69" t="s" s="12">
+        <v>345</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" t="s" s="12">
+        <v>346</v>
+      </c>
+      <c r="H69" t="s" s="12">
+        <v>347</v>
+      </c>
+      <c r="I69" t="s" s="12">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" ht="156.35" customHeight="1">
+      <c r="A70" s="10"/>
+      <c r="B70" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C70" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="11">
+      <c r="D70" t="s" s="12">
+        <v>349</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="G10" t="s" s="11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="156.35" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" ht="128.35" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="11">
+      <c r="H70" t="s" s="12">
+        <v>350</v>
+      </c>
+      <c r="I70" t="s" s="12">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" ht="170.35" customHeight="1">
+      <c r="A71" s="10"/>
+      <c r="B71" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="C71" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="E12" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s" s="11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" ht="170.35" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s" s="11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="184.35" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s" s="12">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s" s="11">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" ht="184.35" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s" s="11">
+      <c r="D71" t="s" s="12">
+        <v>349</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="12">
+        <v>352</v>
+      </c>
+      <c r="I71" t="s" s="12">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" ht="156.35" customHeight="1">
+      <c r="A72" s="10"/>
+      <c r="B72" t="s" s="14">
+        <v>354</v>
+      </c>
+      <c r="C72" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s" s="12">
+        <v>316</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="12">
+        <v>355</v>
+      </c>
+      <c r="I72" t="s" s="12">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" ht="184.35" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" t="s" s="14">
+        <v>357</v>
+      </c>
+      <c r="C73" t="s" s="12">
+        <v>358</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="G15" t="s" s="11">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" ht="156.35" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="184.35" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" ht="184.35" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s" s="11">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="H73" t="s" s="12">
+        <v>359</v>
+      </c>
+      <c r="I73" t="s" s="12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" ht="184.35" customHeight="1">
+      <c r="A74" s="10"/>
+      <c r="B74" t="s" s="14">
+        <v>361</v>
+      </c>
+      <c r="C74" t="s" s="12">
+        <v>362</v>
+      </c>
+      <c r="D74" t="s" s="12">
+        <v>86</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="H74" t="s" s="12">
+        <v>363</v>
+      </c>
+      <c r="I74" t="s" s="12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" ht="170.35" customHeight="1">
+      <c r="A75" s="10"/>
+      <c r="B75" t="s" s="14">
+        <v>365</v>
+      </c>
+      <c r="C75" t="s" s="12">
+        <v>366</v>
+      </c>
+      <c r="D75" t="s" s="12">
+        <v>297</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s" s="12">
+        <v>367</v>
+      </c>
+      <c r="I75" t="s" s="12">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" ht="198.35" customHeight="1">
+      <c r="A76" s="10"/>
+      <c r="B76" t="s" s="14">
+        <v>369</v>
+      </c>
+      <c r="C76" t="s" s="12">
+        <v>370</v>
+      </c>
+      <c r="D76" t="s" s="12">
+        <v>371</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="H76" t="s" s="12">
+        <v>372</v>
+      </c>
+      <c r="I76" t="s" s="12">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" ht="170.35" customHeight="1">
+      <c r="A77" s="10"/>
+      <c r="B77" t="s" s="14">
+        <v>374</v>
+      </c>
+      <c r="C77" t="s" s="12">
+        <v>375</v>
+      </c>
+      <c r="D77" t="s" s="12">
+        <v>376</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="12">
+        <v>377</v>
+      </c>
+      <c r="I77" t="s" s="12">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" ht="184.35" customHeight="1">
+      <c r="A78" s="10"/>
+      <c r="B78" t="s" s="14">
+        <v>379</v>
+      </c>
+      <c r="C78" t="s" s="12">
+        <v>380</v>
+      </c>
+      <c r="D78" t="s" s="12">
+        <v>381</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="12">
+        <v>382</v>
+      </c>
+      <c r="I78" t="s" s="12">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" ht="184.35" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" t="s" s="14">
+        <v>384</v>
+      </c>
+      <c r="C79" t="s" s="12">
+        <v>385</v>
+      </c>
+      <c r="D79" t="s" s="12">
+        <v>386</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s" s="12">
+        <v>387</v>
+      </c>
+      <c r="I79" t="s" s="12">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" ht="170.35" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" t="s" s="14">
+        <v>389</v>
+      </c>
+      <c r="C80" t="s" s="12">
+        <v>390</v>
+      </c>
+      <c r="D80" t="s" s="12">
+        <v>391</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="12">
+        <v>392</v>
+      </c>
+      <c r="I80" t="s" s="12">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" ht="170.35" customHeight="1">
+      <c r="A81" s="10"/>
+      <c r="B81" t="s" s="14">
+        <v>394</v>
+      </c>
+      <c r="C81" t="s" s="12">
+        <v>395</v>
+      </c>
+      <c r="D81" t="s" s="12">
+        <v>396</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G18" t="s" s="11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" ht="198.35" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" t="s" s="12">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s" s="11">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s" s="11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" ht="156.35" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s" s="11">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s" s="11">
+      <c r="H81" t="s" s="12">
+        <v>397</v>
+      </c>
+      <c r="I81" t="s" s="12">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" ht="170.35" customHeight="1">
+      <c r="A82" s="10"/>
+      <c r="B82" t="s" s="14">
+        <v>399</v>
+      </c>
+      <c r="C82" t="s" s="12">
+        <v>400</v>
+      </c>
+      <c r="D82" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="12">
+        <v>401</v>
+      </c>
+      <c r="I82" t="s" s="12">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" ht="170.35" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" t="s" s="14">
+        <v>403</v>
+      </c>
+      <c r="C83" t="s" s="12">
+        <v>404</v>
+      </c>
+      <c r="D83" t="s" s="12">
+        <v>405</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="12">
+        <v>406</v>
+      </c>
+      <c r="I83" t="s" s="12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" ht="184.35" customHeight="1">
+      <c r="A84" s="10"/>
+      <c r="B84" t="s" s="14">
+        <v>408</v>
+      </c>
+      <c r="C84" t="s" s="12">
+        <v>409</v>
+      </c>
+      <c r="D84" t="s" s="12">
+        <v>410</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="H84" t="s" s="12">
+        <v>411</v>
+      </c>
+      <c r="I84" t="s" s="12">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" ht="184.35" customHeight="1">
+      <c r="A85" s="10"/>
+      <c r="B85" t="s" s="14">
+        <v>413</v>
+      </c>
+      <c r="C85" t="s" s="12">
+        <v>414</v>
+      </c>
+      <c r="D85" t="s" s="12">
+        <v>415</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s" s="12">
+        <v>416</v>
+      </c>
+      <c r="I85" t="s" s="12">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" ht="184.35" customHeight="1">
+      <c r="A86" s="10"/>
+      <c r="B86" t="s" s="14">
+        <v>418</v>
+      </c>
+      <c r="C86" t="s" s="12">
+        <v>419</v>
+      </c>
+      <c r="D86" t="s" s="12">
+        <v>420</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="G20" t="s" s="11">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" ht="170.35" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s" s="12">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s" s="11">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s" s="11">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" ht="184.35" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" ht="184.35" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s" s="12">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="F23" t="s" s="11">
+      <c r="H86" t="s" s="12">
+        <v>421</v>
+      </c>
+      <c r="I86" t="s" s="12">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" ht="184.35" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" t="s" s="14">
+        <v>423</v>
+      </c>
+      <c r="C87" t="s" s="12">
+        <v>424</v>
+      </c>
+      <c r="D87" t="s" s="12">
+        <v>425</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" t="s" s="12">
+        <v>426</v>
+      </c>
+      <c r="H87" t="s" s="12">
+        <v>427</v>
+      </c>
+      <c r="I87" t="s" s="12">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" ht="170.35" customHeight="1">
+      <c r="A88" s="10"/>
+      <c r="B88" t="s" s="14">
+        <v>429</v>
+      </c>
+      <c r="C88" t="s" s="12">
+        <v>430</v>
+      </c>
+      <c r="D88" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" t="s" s="12">
+        <v>346</v>
+      </c>
+      <c r="H88" t="s" s="12">
+        <v>431</v>
+      </c>
+      <c r="I88" t="s" s="12">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="89" ht="212.35" customHeight="1">
+      <c r="A89" s="10"/>
+      <c r="B89" t="s" s="14">
+        <v>433</v>
+      </c>
+      <c r="C89" t="s" s="12">
+        <v>434</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="G23" t="s" s="11">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" ht="170.35" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="F24" t="s" s="11">
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s" s="12">
+        <v>435</v>
+      </c>
+      <c r="I89" t="s" s="12">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" ht="184.35" customHeight="1">
+      <c r="A90" s="10"/>
+      <c r="B90" t="s" s="14">
+        <v>437</v>
+      </c>
+      <c r="C90" t="s" s="12">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="G24" t="s" s="11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" ht="170.35" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s" s="11">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s" s="11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" ht="184.35" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s" s="11">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s" s="11">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" ht="170.35" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="G27" t="s" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" ht="200.35" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F28" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="G28" t="s" s="11">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" ht="184.35" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="C29" t="s" s="11">
-        <v>133</v>
-      </c>
-      <c r="D29" t="s" s="11">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s" s="11">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s" s="11">
-        <v>136</v>
-      </c>
-      <c r="G29" t="s" s="11">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" ht="170.35" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s" s="11">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s" s="11">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s" s="11">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" ht="184.35" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="C31" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="D31" t="s" s="11">
-        <v>145</v>
-      </c>
-      <c r="E31" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F31" t="s" s="11">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s" s="11">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" ht="198.35" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" t="s" s="13">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s" s="11">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s" s="11">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s" s="11">
-        <v>151</v>
-      </c>
-      <c r="G32" t="s" s="11">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" ht="170.35" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" t="s" s="12">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s" s="11">
-        <v>154</v>
-      </c>
-      <c r="D33" t="s" s="11">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F33" t="s" s="11">
-        <v>156</v>
-      </c>
-      <c r="G33" t="s" s="11">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" ht="170.35" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s" s="12">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s" s="11">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s" s="11">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s" s="11">
-        <v>161</v>
-      </c>
-      <c r="F34" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="G34" t="s" s="11">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" ht="184.35" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" t="s" s="12">
-        <v>164</v>
-      </c>
-      <c r="C35" t="s" s="11">
-        <v>165</v>
-      </c>
-      <c r="D35" t="s" s="11">
-        <v>166</v>
-      </c>
-      <c r="E35" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F35" t="s" s="11">
-        <v>167</v>
-      </c>
-      <c r="G35" t="s" s="11">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" ht="170.35" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" t="s" s="12">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s" s="11">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="F36" t="s" s="11">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s" s="11">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" ht="170.35" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" t="s" s="12">
-        <v>174</v>
-      </c>
-      <c r="C37" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="D37" t="s" s="11">
-        <v>176</v>
-      </c>
-      <c r="E37" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F37" t="s" s="11">
-        <v>177</v>
-      </c>
-      <c r="G37" t="s" s="11">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" ht="184.35" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" t="s" s="12">
-        <v>179</v>
-      </c>
-      <c r="C38" t="s" s="11">
-        <v>180</v>
-      </c>
-      <c r="D38" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="E38" t="s" s="11">
-        <v>181</v>
-      </c>
-      <c r="F38" t="s" s="11">
-        <v>182</v>
-      </c>
-      <c r="G38" t="s" s="11">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" ht="170.35" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" t="s" s="12">
-        <v>184</v>
-      </c>
-      <c r="C39" t="s" s="11">
-        <v>185</v>
-      </c>
-      <c r="D39" t="s" s="11">
-        <v>186</v>
-      </c>
-      <c r="E39" t="s" s="11">
-        <v>161</v>
-      </c>
-      <c r="F39" t="s" s="11">
-        <v>187</v>
-      </c>
-      <c r="G39" t="s" s="11">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" ht="170.35" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" t="s" s="12">
-        <v>189</v>
-      </c>
-      <c r="C40" t="s" s="11">
-        <v>190</v>
-      </c>
-      <c r="D40" t="s" s="11">
-        <v>191</v>
-      </c>
-      <c r="E40" t="s" s="11">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s" s="11">
-        <v>192</v>
-      </c>
-      <c r="G40" t="s" s="11">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" ht="170.35" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" t="s" s="12">
-        <v>194</v>
-      </c>
-      <c r="C41" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="D41" t="s" s="11">
-        <v>196</v>
-      </c>
-      <c r="E41" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="F41" t="s" s="11">
-        <v>198</v>
-      </c>
-      <c r="G41" t="s" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" ht="170.35" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" t="s" s="12">
-        <v>200</v>
-      </c>
-      <c r="C42" t="s" s="11">
-        <v>201</v>
-      </c>
-      <c r="D42" t="s" s="11">
-        <v>202</v>
-      </c>
-      <c r="E42" t="s" s="11">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s" s="11">
-        <v>204</v>
-      </c>
-      <c r="G42" t="s" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" ht="200.35" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" t="s" s="12">
-        <v>206</v>
-      </c>
-      <c r="C43" t="s" s="11">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s" s="11">
-        <v>208</v>
-      </c>
-      <c r="E43" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F43" t="s" s="11">
-        <v>209</v>
-      </c>
-      <c r="G43" t="s" s="11">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" ht="214.35" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" t="s" s="13">
-        <v>211</v>
-      </c>
-      <c r="C44" t="s" s="11">
-        <v>212</v>
-      </c>
-      <c r="D44" t="s" s="11">
-        <v>213</v>
-      </c>
-      <c r="E44" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F44" t="s" s="11">
-        <v>214</v>
-      </c>
-      <c r="G44" t="s" s="11">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" ht="200.35" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" t="s" s="12">
-        <v>216</v>
-      </c>
-      <c r="C45" t="s" s="11">
-        <v>217</v>
-      </c>
-      <c r="D45" t="s" s="11">
-        <v>218</v>
-      </c>
-      <c r="E45" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="F45" t="s" s="11">
-        <v>219</v>
-      </c>
-      <c r="G45" t="s" s="11">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" ht="200.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" t="s" s="12">
-        <v>221</v>
-      </c>
-      <c r="C46" t="s" s="11">
-        <v>222</v>
-      </c>
-      <c r="D46" t="s" s="11">
-        <v>223</v>
-      </c>
-      <c r="E46" t="s" s="11">
-        <v>224</v>
-      </c>
-      <c r="F46" t="s" s="11">
-        <v>225</v>
-      </c>
-      <c r="G46" t="s" s="11">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" ht="214.35" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" t="s" s="12">
-        <v>227</v>
-      </c>
-      <c r="C47" t="s" s="11">
-        <v>228</v>
-      </c>
-      <c r="D47" t="s" s="11">
-        <v>229</v>
-      </c>
-      <c r="E47" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F47" t="s" s="11">
-        <v>230</v>
-      </c>
-      <c r="G47" t="s" s="11">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" ht="172.35" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" t="s" s="12">
-        <v>232</v>
-      </c>
-      <c r="C48" t="s" s="11">
-        <v>233</v>
-      </c>
-      <c r="D48" t="s" s="11">
-        <v>234</v>
-      </c>
-      <c r="E48" t="s" s="11">
-        <v>235</v>
-      </c>
-      <c r="F48" t="s" s="11">
-        <v>236</v>
-      </c>
-      <c r="G48" t="s" s="11">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" ht="200.35" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" t="s" s="12">
-        <v>238</v>
-      </c>
-      <c r="C49" t="s" s="11">
-        <v>239</v>
-      </c>
-      <c r="D49" t="s" s="11">
-        <v>240</v>
-      </c>
-      <c r="E49" t="s" s="11">
-        <v>241</v>
-      </c>
-      <c r="F49" t="s" s="11">
-        <v>242</v>
-      </c>
-      <c r="G49" t="s" s="11">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" ht="186.35" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" t="s" s="12">
-        <v>244</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>245</v>
-      </c>
-      <c r="D50" t="s" s="11">
-        <v>246</v>
-      </c>
-      <c r="E50" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="F50" t="s" s="11">
-        <v>247</v>
-      </c>
-      <c r="G50" t="s" s="11">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" ht="200.35" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" t="s" s="12">
-        <v>249</v>
-      </c>
-      <c r="C51" t="s" s="11">
-        <v>250</v>
-      </c>
-      <c r="D51" t="s" s="11">
-        <v>251</v>
-      </c>
-      <c r="E51" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s" s="11">
-        <v>252</v>
-      </c>
-      <c r="G51" t="s" s="11">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" ht="186.35" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" t="s" s="12">
-        <v>254</v>
-      </c>
-      <c r="C52" t="s" s="11">
-        <v>255</v>
-      </c>
-      <c r="D52" t="s" s="11">
-        <v>256</v>
-      </c>
-      <c r="E52" t="s" s="11">
-        <v>235</v>
-      </c>
-      <c r="F52" t="s" s="11">
-        <v>257</v>
-      </c>
-      <c r="G52" t="s" s="11">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" ht="186.35" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" t="s" s="12">
-        <v>259</v>
-      </c>
-      <c r="C53" t="s" s="11">
-        <v>260</v>
-      </c>
-      <c r="D53" t="s" s="11">
-        <v>261</v>
-      </c>
-      <c r="E53" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="F53" t="s" s="11">
-        <v>262</v>
-      </c>
-      <c r="G53" t="s" s="11">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" ht="186.35" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" t="s" s="12">
-        <v>264</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>265</v>
-      </c>
-      <c r="D54" t="s" s="11">
-        <v>266</v>
-      </c>
-      <c r="E54" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F54" t="s" s="11">
-        <v>267</v>
-      </c>
-      <c r="G54" t="s" s="11">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" ht="200.35" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" t="s" s="12">
-        <v>269</v>
-      </c>
-      <c r="C55" t="s" s="11">
-        <v>270</v>
-      </c>
-      <c r="D55" t="s" s="11">
-        <v>271</v>
-      </c>
-      <c r="E55" t="s" s="11">
-        <v>161</v>
-      </c>
-      <c r="F55" t="s" s="11">
-        <v>272</v>
-      </c>
-      <c r="G55" t="s" s="11">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" ht="186.35" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" t="s" s="13">
-        <v>274</v>
-      </c>
-      <c r="C56" t="s" s="11">
-        <v>275</v>
-      </c>
-      <c r="D56" t="s" s="11">
-        <v>276</v>
-      </c>
-      <c r="E56" t="s" s="11">
-        <v>197</v>
-      </c>
-      <c r="F56" t="s" s="11">
-        <v>277</v>
-      </c>
-      <c r="G56" t="s" s="11">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" ht="228.35" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" t="s" s="12">
-        <v>279</v>
-      </c>
-      <c r="C57" t="s" s="11">
-        <v>280</v>
-      </c>
-      <c r="D57" t="s" s="11">
-        <v>246</v>
-      </c>
-      <c r="E57" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F57" t="s" s="11">
-        <v>281</v>
-      </c>
-      <c r="G57" t="s" s="11">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" ht="198.35" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" t="s" s="12">
-        <v>283</v>
-      </c>
-      <c r="C58" t="s" s="11">
-        <v>284</v>
-      </c>
-      <c r="D58" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s" s="11">
-        <v>285</v>
-      </c>
-      <c r="G58" t="s" s="11">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" ht="170.35" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" t="s" s="12">
-        <v>287</v>
-      </c>
-      <c r="C59" t="s" s="11">
-        <v>288</v>
-      </c>
-      <c r="D59" t="s" s="11">
-        <v>289</v>
-      </c>
-      <c r="E59" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s" s="11">
-        <v>290</v>
-      </c>
-      <c r="G59" t="s" s="11">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" ht="198.35" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" t="s" s="12">
-        <v>292</v>
-      </c>
-      <c r="C60" t="s" s="11">
-        <v>293</v>
-      </c>
-      <c r="D60" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="E60" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s" s="11">
-        <v>295</v>
-      </c>
-      <c r="G60" t="s" s="11">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" ht="170.35" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" t="s" s="12">
-        <v>297</v>
-      </c>
-      <c r="C61" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="D61" t="s" s="11">
-        <v>299</v>
-      </c>
-      <c r="E61" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="F61" t="s" s="11">
-        <v>301</v>
-      </c>
-      <c r="G61" t="s" s="11">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" ht="170.35" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" t="s" s="12">
-        <v>303</v>
-      </c>
-      <c r="C62" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="D62" t="s" s="11">
-        <v>299</v>
-      </c>
-      <c r="E62" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="F62" t="s" s="11">
-        <v>304</v>
-      </c>
-      <c r="G62" t="s" s="11">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" ht="170.35" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" t="s" s="12">
-        <v>306</v>
-      </c>
-      <c r="C63" t="s" s="11">
-        <v>307</v>
-      </c>
-      <c r="D63" t="s" s="11">
-        <v>308</v>
-      </c>
-      <c r="E63" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s" s="11">
-        <v>309</v>
-      </c>
-      <c r="G63" t="s" s="11">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" ht="142.35" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" t="s" s="12">
-        <v>311</v>
-      </c>
-      <c r="C64" t="s" s="11">
-        <v>312</v>
-      </c>
-      <c r="D64" t="s" s="11">
-        <v>313</v>
-      </c>
-      <c r="E64" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="F64" t="s" s="11">
-        <v>314</v>
-      </c>
-      <c r="G64" t="s" s="11">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" ht="184.35" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" t="s" s="12">
-        <v>316</v>
-      </c>
-      <c r="C65" t="s" s="11">
-        <v>317</v>
-      </c>
-      <c r="D65" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="F65" t="s" s="11">
-        <v>318</v>
-      </c>
-      <c r="G65" t="s" s="11">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" ht="184.35" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" t="s" s="12">
-        <v>320</v>
-      </c>
-      <c r="C66" t="s" s="11">
-        <v>321</v>
-      </c>
-      <c r="D66" t="s" s="11">
-        <v>322</v>
-      </c>
-      <c r="E66" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s" s="11">
-        <v>323</v>
-      </c>
-      <c r="G66" t="s" s="11">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" ht="156.35" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" t="s" s="12">
-        <v>325</v>
-      </c>
-      <c r="C67" t="s" s="11">
-        <v>326</v>
-      </c>
-      <c r="D67" t="s" s="11">
-        <v>327</v>
-      </c>
-      <c r="E67" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s" s="11">
-        <v>328</v>
-      </c>
-      <c r="G67" t="s" s="11">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" ht="170.35" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" t="s" s="12">
-        <v>330</v>
-      </c>
-      <c r="C68" t="s" s="11">
-        <v>331</v>
-      </c>
-      <c r="D68" t="s" s="11">
-        <v>332</v>
-      </c>
-      <c r="E68" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s" s="11">
-        <v>333</v>
-      </c>
-      <c r="G68" t="s" s="11">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" ht="198.35" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" t="s" s="12">
-        <v>335</v>
-      </c>
-      <c r="C69" t="s" s="11">
-        <v>336</v>
-      </c>
-      <c r="D69" t="s" s="11">
-        <v>337</v>
-      </c>
-      <c r="E69" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="F69" t="s" s="11">
-        <v>339</v>
-      </c>
-      <c r="G69" t="s" s="11">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70" ht="156.35" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="D70" t="s" s="11">
-        <v>341</v>
-      </c>
-      <c r="E70" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s" s="11">
-        <v>342</v>
-      </c>
-      <c r="G70" t="s" s="11">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" ht="170.35" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="C71" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D71" t="s" s="11">
-        <v>341</v>
-      </c>
-      <c r="E71" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s" s="11">
-        <v>344</v>
-      </c>
-      <c r="G71" t="s" s="11">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" ht="156.35" customHeight="1">
-      <c r="A72" s="9"/>
-      <c r="B72" t="s" s="12">
-        <v>346</v>
-      </c>
-      <c r="C72" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D72" t="s" s="11">
-        <v>308</v>
-      </c>
-      <c r="E72" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s" s="11">
-        <v>347</v>
-      </c>
-      <c r="G72" t="s" s="11">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" ht="184.35" customHeight="1">
-      <c r="A73" s="9"/>
-      <c r="B73" t="s" s="12">
-        <v>349</v>
-      </c>
-      <c r="C73" t="s" s="11">
-        <v>350</v>
-      </c>
-      <c r="D73" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E73" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="F73" t="s" s="11">
-        <v>351</v>
-      </c>
-      <c r="G73" t="s" s="11">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="74" ht="184.35" customHeight="1">
-      <c r="A74" s="9"/>
-      <c r="B74" t="s" s="12">
-        <v>353</v>
-      </c>
-      <c r="C74" t="s" s="11">
-        <v>354</v>
-      </c>
-      <c r="D74" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="E74" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="F74" t="s" s="11">
-        <v>355</v>
-      </c>
-      <c r="G74" t="s" s="11">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" ht="170.35" customHeight="1">
-      <c r="A75" s="9"/>
-      <c r="B75" t="s" s="12">
-        <v>357</v>
-      </c>
-      <c r="C75" t="s" s="11">
-        <v>358</v>
-      </c>
-      <c r="D75" t="s" s="11">
-        <v>289</v>
-      </c>
-      <c r="E75" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s" s="11">
-        <v>359</v>
-      </c>
-      <c r="G75" t="s" s="11">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76" ht="198.35" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" t="s" s="12">
-        <v>361</v>
-      </c>
-      <c r="C76" t="s" s="11">
-        <v>362</v>
-      </c>
-      <c r="D76" t="s" s="11">
-        <v>363</v>
-      </c>
-      <c r="E76" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="F76" t="s" s="11">
-        <v>364</v>
-      </c>
-      <c r="G76" t="s" s="11">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" ht="170.35" customHeight="1">
-      <c r="A77" s="9"/>
-      <c r="B77" t="s" s="12">
-        <v>366</v>
-      </c>
-      <c r="C77" t="s" s="11">
-        <v>367</v>
-      </c>
-      <c r="D77" t="s" s="11">
-        <v>368</v>
-      </c>
-      <c r="E77" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s" s="11">
-        <v>369</v>
-      </c>
-      <c r="G77" t="s" s="11">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" ht="184.35" customHeight="1">
-      <c r="A78" s="9"/>
-      <c r="B78" t="s" s="12">
-        <v>371</v>
-      </c>
-      <c r="C78" t="s" s="11">
-        <v>372</v>
-      </c>
-      <c r="D78" t="s" s="11">
-        <v>373</v>
-      </c>
-      <c r="E78" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s" s="11">
-        <v>374</v>
-      </c>
-      <c r="G78" t="s" s="11">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" ht="184.35" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" t="s" s="12">
-        <v>376</v>
-      </c>
-      <c r="C79" t="s" s="11">
-        <v>377</v>
-      </c>
-      <c r="D79" t="s" s="11">
-        <v>378</v>
-      </c>
-      <c r="E79" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s" s="11">
-        <v>379</v>
-      </c>
-      <c r="G79" t="s" s="11">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="80" ht="170.35" customHeight="1">
-      <c r="A80" s="9"/>
-      <c r="B80" t="s" s="12">
-        <v>381</v>
-      </c>
-      <c r="C80" t="s" s="11">
-        <v>382</v>
-      </c>
-      <c r="D80" t="s" s="11">
-        <v>383</v>
-      </c>
-      <c r="E80" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s" s="11">
-        <v>384</v>
-      </c>
-      <c r="G80" t="s" s="11">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" ht="170.35" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" t="s" s="12">
-        <v>386</v>
-      </c>
-      <c r="C81" t="s" s="11">
-        <v>387</v>
-      </c>
-      <c r="D81" t="s" s="11">
-        <v>388</v>
-      </c>
-      <c r="E81" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="F81" t="s" s="11">
-        <v>389</v>
-      </c>
-      <c r="G81" t="s" s="11">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" ht="170.35" customHeight="1">
-      <c r="A82" s="9"/>
-      <c r="B82" t="s" s="12">
-        <v>391</v>
-      </c>
-      <c r="C82" t="s" s="11">
-        <v>392</v>
-      </c>
-      <c r="D82" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s" s="11">
-        <v>393</v>
-      </c>
-      <c r="G82" t="s" s="11">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="83" ht="170.35" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" t="s" s="12">
-        <v>395</v>
-      </c>
-      <c r="C83" t="s" s="11">
-        <v>396</v>
-      </c>
-      <c r="D83" t="s" s="11">
-        <v>397</v>
-      </c>
-      <c r="E83" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s" s="11">
-        <v>398</v>
-      </c>
-      <c r="G83" t="s" s="11">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" ht="184.35" customHeight="1">
-      <c r="A84" s="9"/>
-      <c r="B84" t="s" s="12">
-        <v>400</v>
-      </c>
-      <c r="C84" t="s" s="11">
-        <v>401</v>
-      </c>
-      <c r="D84" t="s" s="11">
-        <v>402</v>
-      </c>
-      <c r="E84" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="F84" t="s" s="11">
-        <v>403</v>
-      </c>
-      <c r="G84" t="s" s="11">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" ht="184.35" customHeight="1">
-      <c r="A85" s="9"/>
-      <c r="B85" t="s" s="12">
-        <v>405</v>
-      </c>
-      <c r="C85" t="s" s="11">
-        <v>406</v>
-      </c>
-      <c r="D85" t="s" s="11">
-        <v>407</v>
-      </c>
-      <c r="E85" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s" s="11">
-        <v>408</v>
-      </c>
-      <c r="G85" t="s" s="11">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="86" ht="184.35" customHeight="1">
-      <c r="A86" s="9"/>
-      <c r="B86" t="s" s="12">
-        <v>410</v>
-      </c>
-      <c r="C86" t="s" s="11">
-        <v>411</v>
-      </c>
-      <c r="D86" t="s" s="11">
-        <v>412</v>
-      </c>
-      <c r="E86" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="F86" t="s" s="11">
-        <v>413</v>
-      </c>
-      <c r="G86" t="s" s="11">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" ht="184.35" customHeight="1">
-      <c r="A87" s="9"/>
-      <c r="B87" t="s" s="12">
-        <v>415</v>
-      </c>
-      <c r="C87" t="s" s="11">
-        <v>416</v>
-      </c>
-      <c r="D87" t="s" s="11">
-        <v>417</v>
-      </c>
-      <c r="E87" t="s" s="11">
-        <v>418</v>
-      </c>
-      <c r="F87" t="s" s="11">
-        <v>419</v>
-      </c>
-      <c r="G87" t="s" s="11">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="88" ht="170.35" customHeight="1">
-      <c r="A88" s="9"/>
-      <c r="B88" t="s" s="12">
-        <v>421</v>
-      </c>
-      <c r="C88" t="s" s="11">
-        <v>422</v>
-      </c>
-      <c r="D88" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E88" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="F88" t="s" s="11">
-        <v>423</v>
-      </c>
-      <c r="G88" t="s" s="11">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="89" ht="212.35" customHeight="1">
-      <c r="A89" s="9"/>
-      <c r="B89" t="s" s="12">
-        <v>425</v>
-      </c>
-      <c r="C89" t="s" s="11">
-        <v>426</v>
-      </c>
-      <c r="D89" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="E89" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s" s="11">
-        <v>427</v>
-      </c>
-      <c r="G89" t="s" s="11">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="90" ht="184.35" customHeight="1">
-      <c r="A90" s="9"/>
-      <c r="B90" t="s" s="12">
-        <v>429</v>
-      </c>
-      <c r="C90" t="s" s="11">
-        <v>430</v>
-      </c>
-      <c r="D90" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="E90" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="F90" t="s" s="11">
-        <v>431</v>
-      </c>
-      <c r="G90" t="s" s="11">
-        <v>432</v>
+      <c r="H90" t="s" s="12">
+        <v>439</v>
+      </c>
+      <c r="I90" t="s" s="12">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
